--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,32 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
         <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
           <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -512,7 +512,7 @@
           <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -536,7 +536,7 @@
           <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -560,7 +560,7 @@
           <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -569,22 +569,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -593,89 +593,114 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>person-centred intervention delivery</t>
-        </is>
-      </c>
+          <t>BCIO:044003</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An attribute of a communication process.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>source-led intervention delivery</t>
+          <t>object layout</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>participant-led intervention delivery</t>
+          <t>readability</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>behaviour change intervention delivery</t>
+          <t>oral communication pace</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -684,152 +709,157 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>BCIO:044125</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>tone of voice</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>negotiation</t>
+          <t>object visual style</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>agenda-sharing communication</t>
+          <t>source visual style</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>communication using a particular form of address</t>
+          <t>communication style</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>communication using preferred form of address</t>
+          <t>formal communication style</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>communication using formal address</t>
+          <t>collaborative communication style</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -838,65 +868,85 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>communication using informal address</t>
+          <t>structured communication style</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>standardised</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>communication involving elaboration of arguments</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>communication style conveying hopefulness</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>controlling communication style</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -905,340 +955,340 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>exploring communication</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>verbally dominant communication style</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>eliciting or seeking information</t>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about a topic</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Elicit concerns, problems and reactions</t>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about an experience</t>
+          <t>engaging communication style</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>communication exploring a person's thoughts about a topic</t>
+          <t>communication style conveying concern</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>communication exploring a person's thoughts about an experience</t>
+          <t>theatrical communication style</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>communication understating intensity of person's views</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>directive communication style</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"undershooting" in motivational interviewing</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>interrupting</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>patient communication style</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>communication involving confirmatory rephrasing</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>conversational communication style</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>communication style conveying perceived superiority</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>classroom-style discussion</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>communication avoiding argumentation</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>intellectual communication style</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>communication checking for others' understanding</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>direct communication style</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by the explicit presentation of information.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>emotionally expressive communication</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>active participation encouraging communication style</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1247,22 +1297,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044094</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>shifting focus of communication</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>communication style conveying support for change</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1271,22 +1321,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>cold communication style</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1295,350 +1345,350 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>metaphor-using reflective communication</t>
+          <t>entertaining communication style</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>fun</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>summarising reflective communication</t>
+          <t>rushed communication style</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style conveying information in a hurried way.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>emotion-emphasising reflective communication</t>
+          <t>communication style demonstrating positive regard</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>double-sided reflective communication</t>
+          <t>easily comprehended communication style</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>re-evaluation prompting reflective communication</t>
+          <t>humorous communication style</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style intended to amuse.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>communication using interjections to signal attentiveness</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>aloof communication style</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>communication involving agreement</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>informal communication style</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+          <t>angry communication style</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>A communication style characterised by anger.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>intervention content communication process</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>non-responsive communication style</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>behaviour change intervention content communication process</t>
+          <t>respectful communication style</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>affirming communication</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>persuasive communication style</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>communication asking permission to provide information and advice</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>legitimising communication style</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>communication using particular language</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>non-defensive communication style</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1647,70 +1697,80 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>communication using non-pressurising language</t>
+          <t>empathic communication style</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>communication using slang</t>
+          <t>interactive communication style</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>communication using neutral language</t>
+          <t>non-confrontational communication style</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1719,22 +1779,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>communication using selected words from a second language</t>
+          <t>aggressive communication style</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
+          <t>A communication style characterised by aggression.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1743,22 +1803,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>communication avoiding offensive language</t>
+          <t>polite communication style</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
+          <t>A communication style characterised by courtesy.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1767,70 +1827,80 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>communication using specialist language</t>
+          <t>autonomy-supportive communication style</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>using jargon</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>communication adding intensity to another's views</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>anxious communication style</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication style characterised by nervousness or unease.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>narrative communication</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>impatient communication style</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1839,287 +1909,312 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>communication checking for own understanding</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>non-judgmental communication style</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>warm communication style</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>communication offering choice</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>communication style conveying acceptance</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>relationship building</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>didactic communication style</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>communication encouraging discussion</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>attentive communication style</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Contrasts with a more one-way, didactic style</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>communication evoking another's ideas about change</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>articulate communication style</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>evoking change talk in motivational interviewing</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>communication using deliberate pauses</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>responsive communication style</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>communication avoiding interrupting</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>relaxed communication style</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>calm communication style</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>active listening</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>semi-structured communication style</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>script-based communication</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>communication style conveying genuineness</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>sincerity</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
+          <t>BCIO:050555</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>communication message</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2128,22 +2223,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
+          <t>BCIO:045000</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>communication acknowledging difficulties</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2152,610 +2247,600 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>offering reassurance</t>
+          <t>participant-led intervention delivery</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
-          <t>guiding communication</t>
+          <t>person-centred intervention delivery</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>branded communication</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>use of branding; brand identity</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044008</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>communication using commands</t>
+          <t>source-led intervention delivery</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>banter</t>
-        </is>
-      </c>
+          <t>BCIO:050552</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>asking questions</t>
-        </is>
-      </c>
+          <t>BCIO:050384</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A process involving the transmission of information between two or more participants.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>asking leading questions</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>asking directive questions</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>asking clarifying questions</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>affirming communication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>asking closed-ended questions</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>banter</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>asking open-ended questions</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>asking focused questions</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>communication using commands</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>communication highlighting a contradiction</t>
+          <t>communication offering choice</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>paraphrasing</t>
+          <t>communication using deliberate pauses</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>communication inviting reactions to content presented</t>
+          <t>exploring communication</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>communication process attribute</t>
-        </is>
-      </c>
+          <t>BCIO:050385</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about an experience</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>communication style</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about a topic</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>controlling communication style</t>
+          <t>communication exploring a person's thoughts about an experience</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>warm communication style</t>
+          <t>communication exploring a person's feelings about a topic</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>friendly communication style</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>didactic communication style</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>direct communication style</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>communication using particular language</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Note that this class is different from directive communication style</t>
+          <t>A communication using certain vocabulary or phraseology.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
+          <t>communication using specialist language</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>This can involve using plain and simple language</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>informal communication style</t>
+          <t>communication using non-pressurising language</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>intellectual communication style</t>
+          <t>communication using selected words from a second language</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2764,22 +2849,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>theatrical communication style</t>
+          <t>communication avoiding offensive language</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2788,22 +2873,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>communication style conveying support for change</t>
+          <t>communication using slang</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
+          <t>A communication using informal language shared by members of a particular community.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2812,22 +2897,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>non-confrontational communication style</t>
+          <t>communication using neutral language</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2836,109 +2921,99 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044024</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>cold communication style</t>
-        </is>
-      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>communication avoiding argumentation</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>empathic communication style</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>communication encouraging discussion</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>sensitivity, compassion</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>legitimising communication style</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>guiding communication</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>validating emotions</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>communication style conveying concern</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>communication avoiding interrupting</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2947,22 +3022,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>non-responsive communication style</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>communication checking for others' understanding</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2971,80 +3046,70 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>entertaining communication style</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>communication using rational arguments</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>fun</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>behaviour change intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>communication showing acknowledgement</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>communication style conveying acceptance</t>
+          <t>communication acknowledging difficulties</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3053,22 +3118,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>formal communication style</t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>reflective communication</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3077,505 +3142,470 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>respectful communication style</t>
+          <t>double-sided reflective communication</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>communication style conveying hopefulness</t>
+          <t>re-evaluation prompting reflective communication</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>optimism, positivity</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>articulate communication style</t>
+          <t>metaphor-using reflective communication</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fluent</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>attentive communication style</t>
+          <t>emotion-emphasising reflective communication</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>directive communication style</t>
+          <t>summarising reflective communication</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Note that this class is different from direct communication style</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>impatient communication style</t>
-        </is>
-      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>communication involving confirmatory rephrasing</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>communication style conveying perceived superiority</t>
-        </is>
-      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>communication involving agreement</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>interactive communication style</t>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>autonomy-supportive communication style</t>
-        </is>
-      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>interrupting</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one person interjects before another has finished making their point.</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>needs-supportive communication style</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>communication style conveying genuineness</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>communication checking for own understanding</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>sincerity</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>rushed communication style</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>branded communication</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>use of branding; brand identity</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>engaging communication style</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>relationship building</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>semi-structured communication style</t>
-        </is>
-      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>emotionally expressive communication</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>organised communication style</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>aloof communication style</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>patient communication style</t>
-        </is>
-      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>intervention content communication process</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
+          <t>A communication that transmits the content of an intervention</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>"willing to listen"</t>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>collaborative communication style</t>
+          <t>behaviour change intervention content communication process</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>anxious communication style</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>active participation encouraging communication style</t>
+          <t>classroom-style discussion</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3584,229 +3614,194 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>conversational communication style</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>communication asking permission to provide information and advice</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>persuasive communication style</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>communication involving elaboration of arguments</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>aggressive communication style</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>communication inviting reactions to content presented</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>relaxed communication style</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>asking questions</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which some participant requests information from another participant.</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>calm communication style</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>non-defensive communication style</t>
+          <t>asking closed-ended questions</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>verbally dominant communication style</t>
+          <t>asking leading questions</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
+          <t>asking focused questions</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>structured communication style</t>
+          <t>asking clarifying questions</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions in order to better understand an issue.</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>standardised</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>polite communication style</t>
+          <t>asking open-ended questions</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3815,128 +3810,128 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>communication style demonstrating positive regard</t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>communication adding intensity to another's views</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>responsive communication style</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>paraphrasing</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+          <t>A communication in which one participant summarises what the other said.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>non-judgmental communication style</t>
-        </is>
-      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>communication evoking another's ideas about change</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>communication understating intensity of person's views</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>angry communication style</t>
-        </is>
-      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>shifting focus of communication</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3945,114 +3940,104 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
-          <t>tone of voice</t>
+          <t>communication using a particular form of address</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>object layout</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>communication using preferred form of address</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>source visual style</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>communication using formal address</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>oral communication pace</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>communication using informal address</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4061,58 +4046,193 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>object visual style</t>
+          <t>script-based communication</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
-          <t>readability</t>
+          <t>communication using interjections to signal attentiveness</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BCIO:044009</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>active listening</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>BCIO:044069</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BCIO:044011</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>agenda-sharing communication</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>BCIO:050553</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>communication recipient</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>A &lt;person&gt; who receives a communication.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>BCIO:050554</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>communication source</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>A &lt;material entity&gt; that originates a communication.</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -441,51 +441,51 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -497,19 +497,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+          <t>BCIO:050457</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -521,19 +521,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -545,19 +545,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -569,19 +569,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:050237</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -593,19 +593,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
+          <t>BCIO:050384</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
+          <t>A process involving the transmission of information between two or more participants.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -613,28 +613,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>object layout</t>
+          <t>communication evoking another's ideas about change</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -642,33 +642,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
+          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>readability</t>
+          <t>communication using a particular form of address</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -676,28 +671,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>oral communication pace</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>communication using formal address</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -709,19 +704,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>tone of voice</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>communication using informal address</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -733,19 +728,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>object visual style</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>communication using preferred form of address</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -755,26 +750,26 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>source visual style</t>
+          <t>banter</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -782,81 +777,76 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>communication using commands</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>formal communication style</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>communication adding intensity to another's views</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>collaborative communication style</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>communication using particular language</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+          <t>A communication using certain vocabulary or phraseology.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -868,106 +858,96 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>structured communication style</t>
+          <t>communication using selected words from a second language</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>standardised</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>communication style conveying hopefulness</t>
+          <t>communication using neutral language</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>controlling communication style</t>
+          <t>communication using specialist language</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>verbally dominant communication style</t>
+          <t>communication using non-pressurising language</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -979,48 +959,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>intervention style of delivery</t>
+          <t>communication avoiding offensive language</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>engaging communication style</t>
+          <t>communication using slang</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+          <t>A communication using informal language shared by members of a particular community.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1032,19 +1007,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>communication style conveying concern</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>communication avoiding interrupting</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1056,183 +1031,163 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>theatrical communication style</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>communication involving elaboration of arguments</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>directive communication style</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>active listening</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Note that this class is different from direct communication style</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>patient communication style</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>conversational communication style</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>communication style conveying perceived superiority</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>communication using interjections to signal attentiveness</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>behaviour change intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>intellectual communication style</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1244,120 +1199,120 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:044024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>direct communication style</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>communication avoiding argumentation</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Note that this class is different from directive communication style</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>active participation encouraging communication style</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>branded communication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>use of branding; brand identity</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>communication style conveying support for change</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>communication asking permission to provide information and advice</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>cold communication style</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>affirming communication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>entertaining communication style</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>relationship building</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1365,52 +1320,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>fun</t>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>rushed communication style</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>communication encouraging discussion</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>communication style demonstrating positive regard</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>reflective communication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1422,19 +1382,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
+          <t>double-sided reflective communication</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1442,81 +1402,86 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
-        </is>
-      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>This can involve using plain and simple language</t>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
+          <t>metaphor-using reflective communication</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>aloof communication style</t>
+          <t>re-evaluation prompting reflective communication</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>informal communication style</t>
+          <t>summarising reflective communication</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1526,166 +1491,151 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>angry communication style</t>
+          <t>emotion-emphasising reflective communication</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>non-responsive communication style</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>communication understating intensity of person's views</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>respectful communication style</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>communication checking for others' understanding</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>persuasive communication style</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>communication offering choice</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>legitimising communication style</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>interrupting</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+          <t>A communication in which one person interjects before another has finished making their point.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>validating emotions</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>non-defensive communication style</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>asking questions</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+          <t>A communication in which some participant requests information from another participant.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1697,101 +1647,91 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>empathic communication style</t>
+          <t>asking open-ended questions</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>interactive communication style</t>
+          <t>asking focused questions</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>non-confrontational communication style</t>
+          <t>asking leading questions</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>aggressive communication style</t>
+          <t>asking clarifying questions</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
+          <t>Asking questions in order to better understand an issue.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -1803,43 +1743,38 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>polite communication style</t>
+          <t>asking closed-ended questions</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>autonomy-supportive communication style</t>
-        </is>
-      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>script-based communication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -1847,105 +1782,95 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>needs-supportive communication style</t>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>anxious communication style</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>paraphrasing</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
+          <t>A communication in which one participant summarises what the other said.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>impatient communication style</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>communication involving agreement</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>non-judgmental communication style</t>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>warm communication style</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>guiding communication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -1953,28 +1878,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>communication style conveying acceptance</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>emotionally expressive communication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -1986,111 +1911,91 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>didactic communication style</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>communication showing acknowledgement</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>attentive communication style</t>
+          <t>communication acknowledging difficulties</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>articulate communication style</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>communication using rational arguments</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>responsive communication style</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2098,91 +2003,76 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>relaxed communication style</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>shifting focus of communication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>calm communication style</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>semi-structured communication style</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>communication inviting reactions to content presented</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>organised communication style</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>communication style conveying genuineness</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>exploring communication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2190,191 +2080,231 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>sincerity</t>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050555</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>communication message</t>
-        </is>
-      </c>
+          <t>BCIO:050387</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about an experience</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
+          <t>BCIO:050386</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about a topic</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>participant-led intervention delivery</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about an experience</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>person-centred intervention delivery</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about a topic</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>behaviour change intervention delivery</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>source-led intervention delivery</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>classroom-style discussion</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050552</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>communication channel</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>BCIO:044001</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>intervention content communication process</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; by which a communication is delivered.</t>
+          <t>A communication that transmits the content of an intervention</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
+          <t>BCIO:044002</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content communication process</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2382,52 +2312,47 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>narrative communication</t>
+          <t>communication involving confirmatory rephrasing</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>affirming communication</t>
+          <t>communication checking for own understanding</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2437,383 +2362,343 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
+          <t>clarifying what another has said</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>banter</t>
+          <t>agenda-sharing communication</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+          <t>communication using deliberate pauses</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>communication using commands</t>
-        </is>
-      </c>
+          <t>BCIO:050552</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>communication offering choice</t>
-        </is>
-      </c>
+          <t>BCIO:050553</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>communication recipient</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>A &lt;person&gt; who receives a communication.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>communication using deliberate pauses</t>
-        </is>
-      </c>
+          <t>BCIO:050554</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>communication source</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+          <t>A &lt;material entity&gt; that originates a communication.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>exploring communication</t>
-        </is>
-      </c>
+          <t>BCIO:050555</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>communication message</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>eliciting or seeking information</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>BCIO:045000</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about an experience</t>
-        </is>
-      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+          <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about a topic</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>behaviour change intervention delivery</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about an experience</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>participant-led intervention delivery</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about a topic</t>
-        </is>
-      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>person-centred intervention delivery</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044008</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>negotiation</t>
+          <t>source-led intervention delivery</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>communication using particular language</t>
-        </is>
-      </c>
+          <t>BCIO:044003</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
+          <t>An attribute of a communication process.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>communication using specialist language</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>tone of voice</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>communication using non-pressurising language</t>
-        </is>
-      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>oral communication pace</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -2825,43 +2710,53 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>communication using selected words from a second language</t>
-        </is>
-      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>source visual style</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>communication avoiding offensive language</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -2873,86 +2768,111 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>communication using slang</t>
+          <t>respectful communication style</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>communication using neutral language</t>
+          <t>easily comprehended communication style</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>communication avoiding argumentation</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>communication style conveying perceived superiority</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>communication encouraging discussion</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>didactic communication style</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -2960,28 +2880,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Contrasts with a more one-way, didactic style</t>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>guiding communication</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>articulate communication style</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -2989,52 +2909,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>communication avoiding interrupting</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>direct communication style</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+          <t>A communication style characterised by the explicit presentation of information.</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>communication checking for others' understanding</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>impatient communication style</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3046,91 +2971,111 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>legitimising communication style</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>relaxed communication style</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>calm communication style</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>communication acknowledging difficulties</t>
+          <t>communication style conveying genuineness</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>sincerity</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>active participation encouraging communication style</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3142,221 +3087,236 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>double-sided reflective communication</t>
+          <t>communication style conveying acceptance</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>re-evaluation prompting reflective communication</t>
+          <t>cold communication style</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>metaphor-using reflective communication</t>
+          <t>non-confrontational communication style</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>emotion-emphasising reflective communication</t>
+          <t>persuasive communication style</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>summarising reflective communication</t>
+          <t>polite communication style</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+          <t>A communication style characterised by courtesy.</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>communication involving confirmatory rephrasing</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>behaviour change intervention style of delivery</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>communication involving agreement</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>structured communication style</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>standardised</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+          <t>semi-structured communication style</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>interrupting</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>non-judgmental communication style</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -3368,19 +3328,19 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>communication checking for own understanding</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>intervention style of delivery</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -3388,28 +3348,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>branded communication</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>entertaining communication style</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -3417,33 +3377,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>use of branding; brand identity</t>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>fun</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>relationship building</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>attentive communication style</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -3453,26 +3408,31 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>emotionally expressive communication</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>formal communication style</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -3484,96 +3444,91 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>communication highlighting a contradiction</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>humorous communication style</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>A communication style intended to amuse.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>intervention content communication process</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>non-responsive communication style</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>behaviour change intervention content communication process</t>
+          <t>communication style conveying concern</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>warm communication style</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -3583,107 +3538,142 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+          <t>friendly communication style</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>classroom-style discussion</t>
+          <t>communication style conveying hopefulness</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>communication asking permission to provide information and advice</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>empathic communication style</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>communication involving elaboration of arguments</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>autonomy-supportive communication style</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>communication inviting reactions to content presented</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>non-defensive communication style</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>asking questions</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>theatrical communication style</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -3695,38 +3685,48 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>asking closed-ended questions</t>
+          <t>responsive communication style</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>asking leading questions</t>
+          <t>interactive communication style</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -3734,47 +3734,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>asking directive questions</t>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>asking focused questions</t>
+          <t>informal communication style</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>asking clarifying questions</t>
+          <t>verbally dominant communication style</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -3786,19 +3796,19 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>asking open-ended questions</t>
+          <t>intellectual communication style</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -3810,125 +3820,115 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>communication adding intensity to another's views</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>communication style demonstrating positive regard</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>paraphrasing</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>aggressive communication style</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
+          <t>A communication style characterised by aggression.</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>communication evoking another's ideas about change</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>aloof communication style</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>communication understating intensity of person's views</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>collaborative communication style</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>shifting focus of communication</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>controlling communication style</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -3940,77 +3940,67 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044094</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>communication using a particular form of address</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>communication style conveying support for change</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>communication using preferred form of address</t>
+          <t>engaging communication style</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>communication using formal address</t>
+          <t>angry communication style</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
+          <t>A communication style characterised by anger.</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -4022,19 +4012,19 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>communication using informal address</t>
+          <t>anxious communication style</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+          <t>A communication style characterised by nervousness or unease.</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -4046,19 +4036,19 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>script-based communication</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>patient communication style</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -4066,173 +4056,183 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>communication using interjections to signal attentiveness</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>rushed communication style</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+          <t>A communication style conveying information in a hurried way.</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>active listening</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>directive communication style</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>offering reassurance</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>conversational communication style</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr">
         <is>
-          <t>agenda-sharing communication</t>
+          <t>readability</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:050553</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>communication recipient</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>BCIO:044127</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>object visual style</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; who receives a communication.</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050554</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>communication source</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>BCIO:044129</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>object layout</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>A &lt;material entity&gt; that originates a communication.</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
     </row>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -441,51 +441,51 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
         <is>
           <t>Examples</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+          <t>A planned process by which intervention content is delivered.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -497,19 +497,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>BCIO:008000</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention delivery</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -521,43 +521,38 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:044008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>laughing</t>
+          <t>source-led intervention delivery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>participant-led intervention delivery</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -569,19 +564,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>person-centred intervention delivery</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -593,106 +588,96 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
+          <t>BCIO:050554</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>communication source</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
+          <t>A &lt;material entity&gt; that originates a communication.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>communication evoking another's ideas about change</t>
-        </is>
-      </c>
+          <t>BCIO:044003</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+          <t>An attribute of a communication process.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>communication using a particular form of address</t>
+          <t>tone of voice</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>communication using formal address</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -704,19 +689,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>communication using informal address</t>
+          <t>non-confrontational communication style</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -728,125 +713,115 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>communication using preferred form of address</t>
+          <t>anxious communication style</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+          <t>A communication style characterised by nervousness or unease.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>banter</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>formal communication style</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>communication using commands</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>rushed communication style</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+          <t>A communication style conveying information in a hurried way.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044094</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>communication adding intensity to another's views</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>communication style conveying support for change</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>communication using particular language</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>communication style demonstrating positive regard</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -858,19 +833,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>communication using selected words from a second language</t>
+          <t>communication style conveying acceptance</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -882,19 +857,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>communication using neutral language</t>
+          <t>informal communication style</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -906,48 +886,43 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>communication using specialist language</t>
+          <t>non-responsive communication style</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>communication using non-pressurising language</t>
+          <t>aggressive communication style</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+          <t>A communication style characterised by aggression.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -959,19 +934,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>communication avoiding offensive language</t>
+          <t>non-judgmental communication style</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -983,19 +958,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>communication using slang</t>
+          <t>non-defensive communication style</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1007,19 +982,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>communication avoiding interrupting</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>responsive communication style</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1031,62 +1011,82 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>communication involving elaboration of arguments</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>communication style conveying hopefulness</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>active listening</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>directive communication style</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>narrative communication</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>intellectual communication style</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1098,279 +1098,289 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>easily comprehended communication style</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>communication using interjections to signal attentiveness</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>persuasive communication style</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>communication highlighting a contradiction</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>verbally dominant communication style</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>negotiation</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>relaxed communication style</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>calm communication style</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>communication avoiding argumentation</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>respectful communication style</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>branded communication</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>controlling communication style</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>use of branding; brand identity</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>communication asking permission to provide information and advice</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>communication style conveying genuineness</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>sincerity</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>affirming communication</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>communication style conveying perceived superiority</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>relationship building</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>impatient communication style</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>communication encouraging discussion</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>humorous communication style</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+          <t>A communication style intended to amuse.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>aloof communication style</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1382,77 +1392,67 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>double-sided reflective communication</t>
+          <t>active participation encouraging communication style</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>metaphor-using reflective communication</t>
+          <t>conversational communication style</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>re-evaluation prompting reflective communication</t>
+          <t>empathic communication style</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1460,115 +1460,105 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>summarising reflective communication</t>
+          <t>communication style conveying concern</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>emotion-emphasising reflective communication</t>
+          <t>angry communication style</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+          <t>A communication style characterised by anger.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>communication understating intensity of person's views</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>theatrical communication style</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>communication checking for others' understanding</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>direct communication style</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+          <t>A communication style characterised by the explicit presentation of information.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1580,38 +1570,53 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>communication offering choice</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>semi-structured communication style</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>interrupting</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>engaging communication style</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1623,158 +1628,198 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>asking questions</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>patient communication style</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>asking open-ended questions</t>
+          <t>articulate communication style</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>asking focused questions</t>
+          <t>structured communication style</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>standardised</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>asking leading questions</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>asking directive questions</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>asking clarifying questions</t>
+          <t>didactic communication style</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>asking closed-ended questions</t>
+          <t>cold communication style</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>script-based communication</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>autonomy-supportive communication style</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -1784,26 +1829,26 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+          <t>needs-supportive communication style</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>paraphrasing</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>interactive communication style</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -1811,95 +1856,110 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>communication involving agreement</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>behaviour change intervention style of delivery</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+          <t>warm communication style</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>guiding communication</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>polite communication style</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+          <t>A communication style characterised by courtesy.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>emotionally expressive communication</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>collaborative communication style</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -1911,91 +1971,116 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>attentive communication style</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>communication acknowledging difficulties</t>
+          <t>legitimising communication style</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>entertaining communication style</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>fun</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>offering reassurance</t>
+          <t>readability</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2003,76 +2088,96 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>shifting focus of communication</t>
+          <t>object layout</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>communication inviting reactions to content presented</t>
+          <t>source visual style</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>exploring communication</t>
+          <t>object visual style</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2080,178 +2185,148 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>eliciting or seeking information</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about an experience</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>oral communication pace</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about a topic</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>BCIO:050457</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about an experience</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about a topic</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>classroom-style discussion</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2263,178 +2338,168 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>intervention content communication process</t>
-        </is>
-      </c>
+          <t>BCIO:050555</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>communication message</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
+          <t>BCIO:050384</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>behaviour change intervention content communication process</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
+          <t>A process involving the transmission of information between two or more participants.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>communication involving confirmatory rephrasing</t>
+          <t>interrupting</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>A communication in which one person interjects before another has finished making their point.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>communication checking for own understanding</t>
+          <t>communication inviting reactions to content presented</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>agenda-sharing communication</t>
+          <t>communication checking for own understanding</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>communication using deliberate pauses</t>
+          <t>communication showing acknowledgement</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:050552</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>communication channel</t>
-        </is>
-      </c>
+          <t>BCIO:044021</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>communication acknowledging difficulties</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; by which a communication is delivered.</t>
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -2446,67 +2511,62 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:050553</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>communication recipient</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>BCIO:044041</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>communication offering choice</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; who receives a communication.</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:050554</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>communication source</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>BCIO:044024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>communication avoiding argumentation</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A &lt;material entity&gt; that originates a communication.</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:050555</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>communication message</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>BCIO:044001</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>intervention content communication process</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+          <t>A communication that transmits the content of an intervention</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -2518,19 +2578,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
+          <t>BCIO:044002</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content communication process</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -2542,19 +2607,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>behaviour change intervention delivery</t>
+          <t>communication checking for others' understanding</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -2566,19 +2631,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>participant-led intervention delivery</t>
+          <t>communication using a particular form of address</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -2590,19 +2660,19 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>person-centred intervention delivery</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>communication using formal address</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -2614,115 +2684,115 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>source-led intervention delivery</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>communication using preferred form of address</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>communication process attribute</t>
-        </is>
-      </c>
+          <t>BCIO:044045</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>communication using informal address</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>tone of voice</t>
+          <t>agenda-sharing communication</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>oral communication pace</t>
+          <t>communication adding intensity to another's views</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>source visual style</t>
+          <t>communication using interjections to signal attentiveness</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -2730,33 +2800,33 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
-        </is>
-      </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>communication using rational arguments</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -2768,111 +2838,91 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>respectful communication style</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>communication involving agreement</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>This can involve using plain and simple language</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>communication style conveying perceived superiority</t>
-        </is>
-      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>communication using commands</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>didactic communication style</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -2880,110 +2930,100 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>articulate communication style</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>direct communication style</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>communication asking permission to provide information and advice</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Note that this class is different from directive communication style</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>impatient communication style</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>exploring communication</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>legitimising communication style</t>
+          <t>communication exploring a person's thoughts about a topic</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -2991,62 +3031,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>validating emotions</t>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>relaxed communication style</t>
+          <t>communication exploring a person's feelings about an experience</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>calm communication style</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>communication style conveying genuineness</t>
+          <t>communication exploring a person's feelings about a topic</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3054,28 +3089,33 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>sincerity</t>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>active participation encouraging communication style</t>
+          <t>communication exploring a person's thoughts about an experience</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3087,43 +3127,43 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>communication style conveying acceptance</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>communication involving confirmatory rephrasing</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>cold communication style</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>paraphrasing</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+          <t>A communication in which one participant summarises what the other said.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3135,19 +3175,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>non-confrontational communication style</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>communication encouraging discussion</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -3159,19 +3204,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>persuasive communication style</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>banter</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3183,19 +3233,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>polite communication style</t>
-        </is>
-      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>script-based communication</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -3207,19 +3262,19 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>behaviour change intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>branded communication</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -3229,94 +3284,79 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+          <t>use of branding; brand identity</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>structured communication style</t>
-        </is>
-      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>active listening</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>standardised</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>semi-structured communication style</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>shifting focus of communication</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>organised communication style</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>non-judgmental communication style</t>
-        </is>
-      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>communication using particular language</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+          <t>A communication using certain vocabulary or phraseology.</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -3328,48 +3368,43 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>intervention style of delivery</t>
+          <t>communication using neutral language</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>entertaining communication style</t>
+          <t>communication using specialist language</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -3377,62 +3412,52 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>fun</t>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>attentive communication style</t>
+          <t>communication using slang</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+          <t>A communication using informal language shared by members of a particular community.</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>formal communication style</t>
+          <t>communication avoiding offensive language</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -3444,19 +3469,19 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
+          <t>communication using selected words from a second language</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -3468,19 +3493,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>non-responsive communication style</t>
+          <t>communication using non-pressurising language</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -3492,130 +3517,130 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>communication style conveying concern</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>communication using deliberate pauses</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>warm communication style</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>emotionally expressive communication</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>communication style conveying hopefulness</t>
-        </is>
-      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>empathic communication style</t>
+          <t>classroom-style discussion</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>autonomy-supportive communication style</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>guiding communication</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -3623,33 +3648,28 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>needs-supportive communication style</t>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>non-defensive communication style</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -3661,19 +3681,19 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>theatrical communication style</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>communication avoiding interrupting</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -3685,106 +3705,86 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>responsive communication style</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>communication involving elaboration of arguments</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>interactive communication style</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>asking questions</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
+          <t>A communication in which some participant requests information from another participant.</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>informal communication style</t>
+          <t>asking open-ended questions</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>verbally dominant communication style</t>
+          <t>asking clarifying questions</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+          <t>Asking questions in order to better understand an issue.</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -3796,211 +3796,221 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>intellectual communication style</t>
+          <t>asking focused questions</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>communication style demonstrating positive regard</t>
+          <t>asking closed-ended questions</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>aggressive communication style</t>
+          <t>asking leading questions</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>aloof communication style</t>
-        </is>
-      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>relationship building</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>collaborative communication style</t>
-        </is>
-      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>controlling communication style</t>
-        </is>
-      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>communication understating intensity of person's views</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>communication style conveying support for change</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>affirming communication</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>engaging communication style</t>
-        </is>
-      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>communication evoking another's ideas about change</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>evoking change talk in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>angry communication style</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -4012,19 +4022,19 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>anxious communication style</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>reflective communication</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -4036,19 +4046,19 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>patient communication style</t>
+          <t>double-sided reflective communication</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -4056,52 +4066,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
+          <t>metaphor-using reflective communication</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>directive communication style</t>
+          <t>emotion-emphasising reflective communication</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -4109,57 +4124,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
-        </is>
-      </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Note that this class is different from direct communication style</t>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>conversational communication style</t>
+          <t>summarising reflective communication</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>readability</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>re-evaluation prompting reflective communication</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -4167,72 +4182,57 @@
           <t>style of delivery</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>object visual style</t>
-        </is>
-      </c>
+          <t>BCIO:050552</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>object layout</t>
-        </is>
-      </c>
+          <t>BCIO:050553</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>communication recipient</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
+          <t>A &lt;person&gt; who receives a communication.</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
     </row>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -441,54 +441,54 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Examples</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:050553</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>intervention delivery</t>
+          <t>communication recipient</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+          <t>A &lt;person&gt; who receives a communication.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -497,65 +497,80 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
+          <t>BCIO:044003</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An attribute of a communication process.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>source-led intervention delivery</t>
+          <t>readability</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>participant-led intervention delivery</t>
+          <t>tone of voice</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -564,46 +579,56 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>person-centred intervention delivery</t>
+          <t>object layout</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050554</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>communication source</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>BCIO:044126</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>oral communication pace</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A &lt;material entity&gt; that originates a communication.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -612,27 +637,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>communication process attribute</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>BCIO:044004</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -641,22 +661,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>tone of voice</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>communication style demonstrating positive regard</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -665,94 +685,119 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>communication style</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>easily comprehended communication style</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>non-confrontational communication style</t>
+          <t>legitimising communication style</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>validating emotions</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>anxious communication style</t>
+          <t>communication style conveying genuineness</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>sincerity</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>formal communication style</t>
+          <t>collaborative communication style</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -761,46 +806,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
+          <t>empathic communication style</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>sensitivity, compassion</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>communication style conveying support for change</t>
+          <t>polite communication style</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+          <t>A communication style characterised by courtesy.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -809,22 +859,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>communication style demonstrating positive regard</t>
+          <t>anxious communication style</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+          <t>A communication style characterised by nervousness or unease.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -833,22 +883,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>communication style conveying acceptance</t>
+          <t>persuasive communication style</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -857,51 +907,51 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>informal communication style</t>
+          <t>communication style conveying hopefulness</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>optimism, positivity</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>non-responsive communication style</t>
+          <t>communication style conveying concern</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -910,22 +960,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>aggressive communication style</t>
+          <t>non-judgmental communication style</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -934,22 +984,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>non-judgmental communication style</t>
+          <t>non-responsive communication style</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -958,22 +1008,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>non-defensive communication style</t>
+          <t>cold communication style</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -982,27 +1032,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>responsive communication style</t>
+          <t>humorous communication style</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+          <t>A communication style intended to amuse.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1011,85 +1056,70 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>communication style conveying hopefulness</t>
+          <t>angry communication style</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>optimism, positivity</t>
+          <t>A communication style characterised by anger.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>directive communication style</t>
+          <t>communication style conveying perceived superiority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Note that this class is different from direct communication style</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>intellectual communication style</t>
+          <t>controlling communication style</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1098,56 +1128,51 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
+          <t>responsive communication style</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>This can involve using plain and simple language</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>persuasive communication style</t>
+          <t>rushed communication style</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
+          <t>A communication style conveying information in a hurried way.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1156,22 +1181,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>verbally dominant communication style</t>
+          <t>aloof communication style</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1195,12 +1220,12 @@
           <t>A communication style characterised by a lack of tension or anxiety.</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
         <is>
           <t>calm communication style</t>
         </is>
@@ -1209,133 +1234,143 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>respectful communication style</t>
+          <t>non-confrontational communication style</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>controlling communication style</t>
+          <t>direct communication style</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by the explicit presentation of information.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>communication style conveying genuineness</t>
+          <t>semi-structured communication style</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>sincerity</t>
+          <t>organised communication style</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>communication style conveying perceived superiority</t>
+          <t>structured communication style</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>standardised</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>impatient communication style</t>
+          <t>communication style conveying acceptance</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1344,22 +1379,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044094</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
+          <t>communication style conveying support for change</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1368,22 +1403,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>aloof communication style</t>
+          <t>active participation encouraging communication style</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1392,22 +1427,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>active participation encouraging communication style</t>
+          <t>aggressive communication style</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+          <t>A communication style characterised by aggression.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1416,75 +1451,75 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>conversational communication style</t>
+          <t>informal communication style</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>empathic communication style</t>
+          <t>verbally dominant communication style</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>sensitivity, compassion</t>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>communication style conveying concern</t>
+          <t>non-defensive communication style</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1493,254 +1528,254 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>angry communication style</t>
+          <t>interactive communication style</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>theatrical communication style</t>
+          <t>autonomy-supportive communication style</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>needs-supportive communication style</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>direct communication style</t>
+          <t>patient communication style</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Note that this class is different from directive communication style</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>semi-structured communication style</t>
+          <t>engaging communication style</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>organised communication style</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>engaging communication style</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>patient communication style</t>
+          <t>directive communication style</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>articulate communication style</t>
+          <t>theatrical communication style</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>structured communication style</t>
+          <t>warm communication style</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>standardised</t>
+          <t>friendly communication style</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>intervention style of delivery</t>
+          <t>intellectual communication style</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1749,143 +1784,128 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>didactic communication style</t>
+          <t>impatient communication style</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cold communication style</t>
+          <t>entertaining communication style</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>fun</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>autonomy-supportive communication style</t>
+          <t>conversational communication style</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>needs-supportive communication style</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>interactive communication style</t>
+          <t>didactic communication style</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>behaviour change intervention style of delivery</t>
+          <t>formal communication style</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1894,322 +1914,302 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>warm communication style</t>
+          <t>attentive communication style</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>polite communication style</t>
+          <t>articulate communication style</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t xml:space="preserve"> fluent</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>collaborative communication style</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>attentive communication style</t>
+          <t>respectful communication style</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>legitimising communication style</t>
-        </is>
-      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>object visual style</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>validating emotions</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>entertaining communication style</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>source visual style</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>fun</t>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>readability</t>
-        </is>
-      </c>
+          <t>BCIO:045000</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>object layout</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
+          <t>BCIO:044008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>source visual style</t>
+          <t>source-led intervention delivery</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>object visual style</t>
+          <t>participant-led intervention delivery</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
-          <t>oral communication pace</t>
+          <t>person-centred intervention delivery</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2218,22 +2218,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050555</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>communication message</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2242,22 +2242,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:050554</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>communication source</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
+          <t>A &lt;material entity&gt; that originates a communication.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2266,310 +2266,335 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+          <t>BCIO:050384</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A process involving the transmission of information between two or more participants.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>guiding communication</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>communication inviting reactions to content presented</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:050555</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>communication message</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>BCIO:044041</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>communication offering choice</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>BCIO:044011</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>agenda-sharing communication</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
-          <t>interrupting</t>
+          <t>communication encouraging discussion</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>communication inviting reactions to content presented</t>
+          <t>communication using rational arguments</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>communication checking for own understanding</t>
+          <t>intervention content communication process</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
+          <t>A communication that transmits the content of an intervention</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content communication process</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>communication acknowledging difficulties</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>script-based communication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>communication offering choice</t>
+          <t>communication checking for own understanding</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>communication avoiding argumentation</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>intervention content communication process</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>classroom-style discussion</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2578,51 +2603,41 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>behaviour change intervention content communication process</t>
-        </is>
-      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>communication checking for others' understanding</t>
+          <t>communication using particular language</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
+          <t>A communication using certain vocabulary or phraseology.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2631,27 +2646,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>communication using a particular form of address</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>communication avoiding offensive language</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2660,22 +2670,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>communication using formal address</t>
+          <t>communication using selected words from a second language</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2684,51 +2694,46 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>communication using preferred form of address</t>
+          <t>communication using slang</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
+          <t>A communication using informal language shared by members of a particular community.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>communication using informal address</t>
+          <t>communication using non-pressurising language</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2737,99 +2742,99 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>agenda-sharing communication</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>communication using neutral language</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>communication adding intensity to another's views</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>communication using specialist language</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>using jargon</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>communication using interjections to signal attentiveness</t>
+          <t>communication showing acknowledgement</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>communication acknowledging difficulties</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2838,287 +2843,287 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>communication involving agreement</t>
+          <t>communication using commands</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>shifting focus of communication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>communication using commands</t>
+          <t>communication checking for others' understanding</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>offering reassurance</t>
+          <t>banter</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>based on Roter Interactional Analysis System</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+          <t>active listening</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>communication asking permission to provide information and advice</t>
+          <t>communication using a particular form of address</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>exploring communication</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>communication using formal address</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>eliciting or seeking information</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>communication exploring a person's thoughts about a topic</t>
+          <t>communication using informal address</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about an experience</t>
+          <t>communication using preferred form of address</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about a topic</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>communication understating intensity of person's views</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Elicit concerns, problems and reactions</t>
+          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about an experience</t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>emotionally expressive communication</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3146,85 +3151,75 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:044024</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>paraphrasing</t>
+          <t>communication avoiding argumentation</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>communication encouraging discussion</t>
+          <t>branded communication</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Contrasts with a more one-way, didactic style</t>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>use of branding; brand identity</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>banter</t>
+          <t>asking questions</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+          <t>A communication in which some participant requests information from another participant.</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
-        <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3233,133 +3228,113 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>script-based communication</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>asking leading questions</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>asking directive questions</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>branded communication</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>asking clarifying questions</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>use of branding; brand identity</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
+          <t>Asking questions in order to better understand an issue.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>active listening</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>asking closed-ended questions</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>shifting focus of communication</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>asking focused questions</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>communication using particular language</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>asking open-ended questions</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3368,147 +3343,142 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>communication using neutral language</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>communication using specialist language</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>paraphrasing</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>using jargon</t>
+          <t>A communication in which one participant summarises what the other said.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>communication using slang</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>communication adding intensity to another's views</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>communication avoiding offensive language</t>
-        </is>
-      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>communication using selected words from a second language</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>communication involving elaboration of arguments</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>communication using non-pressurising language</t>
-        </is>
-      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3517,229 +3487,244 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
-          <t>communication using deliberate pauses</t>
+          <t>interrupting</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+          <t>A communication in which one person interjects before another has finished making their point.</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
-          <t>emotionally expressive communication</t>
+          <t>affirming communication</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>exploring communication</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>classroom-style discussion</t>
+          <t>communication exploring a person's feelings about an experience</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>guiding communication</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about a topic</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>negotiation</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about a topic</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>communication avoiding interrupting</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about an experience</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>communication involving elaboration of arguments</t>
+          <t>communication asking permission to provide information and advice</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
-          <t>asking questions</t>
+          <t>reflective communication</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3748,221 +3733,231 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>asking open-ended questions</t>
+          <t>emotion-emphasising reflective communication</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>asking clarifying questions</t>
+          <t>metaphor-using reflective communication</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>asking focused questions</t>
+          <t>re-evaluation prompting reflective communication</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>asking closed-ended questions</t>
+          <t>double-sided reflective communication</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>asking leading questions</t>
+          <t>summarising reflective communication</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>asking directive questions</t>
+          <t>"summarising reflection" in Motivational Interviewing</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>relationship building</t>
+          <t>narrative communication</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>communication highlighting a contradiction</t>
+          <t>communication avoiding interrupting</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>communication understating intensity of person's views</t>
+          <t>communication involving agreement</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>affirming communication</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
@@ -3984,12 +3979,12 @@
           <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
       <c r="G136" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
         <is>
           <t>evoking change talk in motivational interviewing</t>
         </is>
@@ -3998,215 +3993,220 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>narrative communication</t>
+          <t>communication using interjections to signal attentiveness</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>reflective communication</t>
+          <t>relationship building</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>double-sided reflective communication</t>
-        </is>
-      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>communication using deliberate pauses</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr"/>
+          <t>BCIO:050552</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
       <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>metaphor-using reflective communication</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr"/>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>emotion-emphasising reflective communication</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
+          <t>BCIO:050457</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>summarising reflective communication</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>re-evaluation prompting reflective communication</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:050552</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>communication channel</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>BCIO:036034</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; by which a communication is delivered.</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4215,22 +4215,22 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050553</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>communication recipient</t>
-        </is>
-      </c>
+          <t>BCIO:050237</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; who receives a communication.</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -2843,29 +2843,24 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>communication using commands</t>
+          <t>communication checking for others' understanding</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
         </is>
       </c>
     </row>
@@ -2896,24 +2891,29 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>communication checking for others' understanding</t>
+          <t>communication using commands</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
         </is>
       </c>
     </row>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -441,54 +441,59 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050553</t>
+          <t>BCIO:044003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>communication recipient</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; who receives a communication.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>An attribute of a communication process.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -497,80 +502,70 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>communication process attribute</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>BCIO:044004</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>readability</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>non-defensive communication style</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>tone of voice</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>aggressive communication style</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+          <t>A communication style characterised by aggression.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -579,56 +574,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>object layout</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>communication style conveying concern</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>oral communication pace</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>didactic communication style</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -637,22 +627,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>communication style</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>structured communication style</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>standardised</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -661,22 +661,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>communication style demonstrating positive regard</t>
+          <t>responsive communication style</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -685,119 +690,109 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
+          <t>aloof communication style</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>This can involve using plain and simple language</t>
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>legitimising communication style</t>
+          <t>patient communication style</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>validating emotions</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+          <t>"willing to listen"</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>communication style conveying genuineness</t>
+          <t>relaxed communication style</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sincerity</t>
+          <t>calm communication style</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>collaborative communication style</t>
+          <t>entertaining communication style</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>fun</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -806,51 +801,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>empathic communication style</t>
+          <t>warm communication style</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which demonstrates human interest and caring.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sensitivity, compassion</t>
+          <t>friendly communication style</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>polite communication style</t>
+          <t>impatient communication style</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -859,22 +854,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>anxious communication style</t>
+          <t>non-confrontational communication style</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -883,22 +878,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>persuasive communication style</t>
+          <t>directive communication style</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -907,51 +912,46 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>communication style conveying hopefulness</t>
+          <t>verbally dominant communication style</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>optimism, positivity</t>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>communication style conveying concern</t>
+          <t>anxious communication style</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+          <t>A communication style characterised by nervousness or unease.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -960,22 +960,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>non-judgmental communication style</t>
+          <t>persuasive communication style</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -984,22 +984,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>non-responsive communication style</t>
+          <t>theatrical communication style</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1008,22 +1008,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>cold communication style</t>
+          <t>direct communication style</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+          <t>A communication style characterised by the explicit presentation of information.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1032,22 +1037,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
+          <t>active participation encouraging communication style</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1056,22 +1061,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>angry communication style</t>
+          <t>polite communication style</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+          <t>A communication style characterised by courtesy.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1080,22 +1085,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>communication style conveying perceived superiority</t>
+          <t>empathic communication style</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1104,22 +1114,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>controlling communication style</t>
+          <t>interactive communication style</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1128,51 +1143,51 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>responsive communication style</t>
+          <t>communication style conveying genuineness</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>sincerity</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044094</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
+          <t>communication style conveying support for change</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1181,22 +1196,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>aloof communication style</t>
+          <t>articulate communication style</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1205,51 +1225,66 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>relaxed communication style</t>
+          <t>respectful communication style</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>calm communication style</t>
+          <t>"acknowledging the victim's feelings"</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044100</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>non-confrontational communication style</t>
+          <t>easily comprehended communication style</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1258,119 +1293,94 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>direct communication style</t>
+          <t>engaging communication style</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Note that this class is different from directive communication style</t>
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>semi-structured communication style</t>
+          <t>communication style conveying perceived superiority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>organised communication style</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>structured communication style</t>
+          <t>humorous communication style</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>standardised</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+          <t>A communication style intended to amuse.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>communication style conveying acceptance</t>
+          <t>controlling communication style</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1379,22 +1389,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>communication style conveying support for change</t>
+          <t>intellectual communication style</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1403,22 +1413,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>active participation encouraging communication style</t>
+          <t>legitimising communication style</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1427,22 +1447,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>aggressive communication style</t>
+          <t>collaborative communication style</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1451,51 +1471,46 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>informal communication style</t>
+          <t>non-responsive communication style</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>verbally dominant communication style</t>
+          <t>communication style conveying acceptance</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1504,22 +1519,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>non-defensive communication style</t>
+          <t>intervention style of delivery</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1528,114 +1548,94 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>interactive communication style</t>
+          <t>non-judgmental communication style</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>autonomy-supportive communication style</t>
+          <t>rushed communication style</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>needs-supportive communication style</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+          <t>A communication style conveying information in a hurried way.</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>patient communication style</t>
+          <t>angry communication style</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
+          <t>A communication style characterised by anger.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>engaging communication style</t>
+          <t>conversational communication style</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1644,85 +1644,75 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>behaviour change intervention style of delivery</t>
+          <t>cold communication style</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>directive communication style</t>
+          <t>formal communication style</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Note that this class is different from direct communication style</t>
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>theatrical communication style</t>
+          <t>informal communication style</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1731,51 +1721,61 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>warm communication style</t>
+          <t>communication style conveying hopefulness</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>friendly communication style</t>
+          <t>optimism, positivity</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>intellectual communication style</t>
+          <t>autonomy-supportive communication style</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1784,22 +1784,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>impatient communication style</t>
+          <t>communication style demonstrating positive regard</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1808,51 +1808,66 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>entertaining communication style</t>
+          <t>attentive communication style</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>fun</t>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>conversational communication style</t>
+          <t>semi-structured communication style</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1861,51 +1876,56 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>didactic communication style</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>formal communication style</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>readability</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1914,211 +1934,191 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>attentive communication style</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>object visual style</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>articulate communication style</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>object layout</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>oral communication pace</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>respectful communication style</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>source visual style</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>object visual style</t>
+          <t>tone of voice</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>source visual style</t>
-        </is>
-      </c>
+          <t>BCIO:045000</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>BCIO:044006</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>person-centred intervention delivery</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2127,22 +2127,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>behaviour change intervention delivery</t>
+          <t>participant-led intervention delivery</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2151,65 +2151,65 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>source-led intervention delivery</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044008</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>participant-led intervention delivery</t>
+          <t>source-led intervention delivery</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>person-centred intervention delivery</t>
-        </is>
-      </c>
+          <t>BCIO:050554</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>communication source</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
+          <t>A &lt;material entity&gt; that originates a communication.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2218,22 +2218,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050555</t>
+          <t>BCIO:050553</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>communication message</t>
+          <t>communication recipient</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
+          <t>A &lt;person&gt; who receives a communication.</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2242,22 +2242,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050554</t>
+          <t>BCIO:050552</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>communication source</t>
+          <t>communication channel</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A &lt;material entity&gt; that originates a communication.</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2281,151 +2281,181 @@
           <t>A process involving the transmission of information between two or more participants.</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>guiding communication</t>
+          <t>reflective communication</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>communication inviting reactions to content presented</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>double-sided reflective communication</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>communication offering choice</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>metaphor-using reflective communication</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>agenda-sharing communication</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>summarising reflective communication</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>communication encouraging discussion</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>emotion-emphasising reflective communication</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Contrasts with a more one-way, didactic style</t>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>re-evaluation prompting reflective communication</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2434,167 +2464,162 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
-          <t>intervention content communication process</t>
+          <t>communication avoiding interrupting</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>behaviour change intervention content communication process</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>communication offering choice</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>script-based communication</t>
+          <t>communication evoking another's ideas about change</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>evoking change talk in motivational interviewing</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
-          <t>communication checking for own understanding</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>classroom-style discussion</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>classroom-style discussion</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>communication using interjections to signal attentiveness</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2603,41 +2628,56 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+          <t>paraphrasing</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>A communication in which one participant summarises what the other said.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>communication using particular language</t>
+          <t>guiding communication</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2646,22 +2686,32 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>communication avoiding offensive language</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>branded communication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>use of branding; brand identity</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2670,46 +2720,46 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>communication using selected words from a second language</t>
-        </is>
-      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>communication adding intensity to another's views</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>communication using slang</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>communication using commands</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2718,46 +2768,41 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>communication using non-pressurising language</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>communication using neutral language</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>emotionally expressive communication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2766,75 +2811,65 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>communication using specialist language</t>
-        </is>
-      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>communication involving agreement</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>using jargon</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>communication acknowledging difficulties</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>communication understating intensity of person's views</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2843,46 +2878,41 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>communication checking for others' understanding</t>
+          <t>communication involving elaboration of arguments</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>shifting focus of communication</t>
+          <t>narrative communication</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2891,80 +2921,75 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>communication using commands</t>
+          <t>communication involving confirmatory rephrasing</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>banter</t>
+          <t>negotiation</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
-          <t>active listening</t>
+          <t>offering reassurance</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2973,51 +2998,56 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>communication using a particular form of address</t>
+          <t>communication checking for own understanding</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
+          <t>clarifying what another has said</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>communication using formal address</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>communication encouraging discussion</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3026,22 +3056,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>communication using informal address</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>script-based communication</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3050,80 +3085,70 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>communication using preferred form of address</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>communication asking permission to provide information and advice</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
-          <t>communication understating intensity of person's views</t>
+          <t>interrupting</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
+          <t>A communication in which one person interjects before another has finished making their point.</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>emotionally expressive communication</t>
+          <t>banter</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3132,19 +3157,19 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
-          <t>communication involving confirmatory rephrasing</t>
+          <t>agenda-sharing communication</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
@@ -3170,56 +3195,46 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
-          <t>branded communication</t>
+          <t>communication using rational arguments</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>use of branding; brand identity</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>asking questions</t>
+          <t>shifting focus of communication</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3228,51 +3243,46 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>asking leading questions</t>
-        </is>
-      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>communication using particular language</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>asking directive questions</t>
+          <t>A communication using certain vocabulary or phraseology.</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>asking clarifying questions</t>
+          <t>communication using slang</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
+          <t>A communication using informal language shared by members of a particular community.</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3281,60 +3291,75 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>asking closed-ended questions</t>
+          <t>communication using specialist language</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>using jargon</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>asking focused questions</t>
+          <t>communication using neutral language</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>asking open-ended questions</t>
+          <t>communication avoiding offensive language</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3343,142 +3368,162 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>communication highlighting a contradiction</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>communication using selected words from a second language</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>paraphrasing</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>communication using non-pressurising language</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>communication adding intensity to another's views</t>
+          <t>communication using deliberate pauses</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
-          <t>offering reassurance</t>
+          <t>intervention content communication process</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>based on Roter Interactional Analysis System</t>
+          <t>A communication that transmits the content of an intervention</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>communication involving elaboration of arguments</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content communication process</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>negotiation</t>
+          <t>asking questions</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
+          <t>A communication in which some participant requests information from another participant.</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3487,22 +3532,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>interrupting</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>asking leading questions</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3511,220 +3561,180 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>affirming communication</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>asking closed-ended questions</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>exploring communication</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>asking focused questions</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>eliciting or seeking information</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about an experience</t>
+          <t>asking open-ended questions</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>communication exploring a person's thoughts about a topic</t>
+          <t>asking clarifying questions</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
+          <t>Asking questions in order to better understand an issue.</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about a topic</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Elicit concerns, problems and reactions</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about an experience</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>affirming communication</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>communication asking permission to provide information and advice</t>
+          <t>communication showing acknowledgement</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>communication acknowledging difficulties</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3733,167 +3743,152 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>emotion-emphasising reflective communication</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>communication checking for others' understanding</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>metaphor-using reflective communication</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>communication inviting reactions to content presented</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>re-evaluation prompting reflective communication</t>
-        </is>
-      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>relationship building</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>double-sided reflective communication</t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>communication using a particular form of address</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>summarising reflective communication</t>
+          <t>communication using formal address</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>narrative communication</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>communication using preferred form of address</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3902,22 +3897,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>communication avoiding interrupting</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>communication using informal address</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3926,191 +3921,196 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
-          <t>communication involving agreement</t>
+          <t>active listening</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>exploring communication</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>communication evoking another's ideas about change</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about a topic</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>evoking change talk in motivational interviewing</t>
+          <t>Elicit concerns, problems and reactions</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>communication using interjections to signal attentiveness</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about an experience</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>relationship building</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>communication exploring a person's feelings about an experience</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>communication using deliberate pauses</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>communication exploring a person's thoughts about a topic</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
+          <t>clarifying what someone has said</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:050552</t>
+          <t>BCIO:050555</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>communication channel</t>
+          <t>communication message</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; by which a communication is delivered.</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4134,7 +4134,7 @@
           <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4158,7 +4158,7 @@
           <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4182,7 +4182,7 @@
           <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4206,7 +4206,7 @@
           <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4230,7 +4230,7 @@
           <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,90 +434,81 @@
       </c>
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr">
+      <c r="E1" t="inlineStr"/>
+      <c r="F1" t="inlineStr"/>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Definition</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
         <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
         <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
+          <t>MF:0000016</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>communication process attribute</t>
+          <t>http://purl.obolibrary.org/obo/MF_0000016</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>An attribute of a communication process.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:050553</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>communication recipient</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &lt;person&gt; who receives a communication.</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -526,70 +517,56 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>non-defensive communication style</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>aggressive communication style</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>A communication style characterised by aggression.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>communication style conveying concern</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -598,27 +575,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>didactic communication style</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -627,32 +601,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>structured communication style</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>standardised</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -661,27 +627,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>responsive communication style</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -690,22 +653,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>aloof communication style</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -714,27 +679,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>patient communication style</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -743,27 +705,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>relaxed communication style</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
-        </is>
-      </c>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>calm communication style</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -772,80 +731,56 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>entertaining communication style</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>fun</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>warm communication style</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>impatient communication style</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+          <t>inter-personal behaviour</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -854,22 +789,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>non-confrontational communication style</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -878,32 +815,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>directive communication style</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Note that this class is different from direct communication style</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -912,22 +841,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>verbally dominant communication style</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -936,22 +867,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>anxious communication style</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>A communication style characterised by nervousness or unease.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -960,22 +893,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>persuasive communication style</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -984,22 +919,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>theatrical communication style</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1008,51 +945,40 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>BFO:0000015</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>direct communication style</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Note that this class is different from directive communication style</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:050552</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>active participation encouraging communication style</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1061,51 +987,40 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>OBI:0000011</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>polite communication style</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>A communication style characterised by courtesy.</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000011</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>empathic communication style</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
-        </is>
-      </c>
+          <t>intervention delivery</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sensitivity, compassion</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1114,27 +1029,24 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>interactive communication style</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
+          <t>behaviour change intervention delivery</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1143,27 +1055,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>communication style conveying genuineness</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
-        </is>
-      </c>
+          <t>participant-led intervention delivery</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sincerity</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1172,22 +1081,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>communication style conveying support for change</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
+          <t>person-centred intervention delivery</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1196,95 +1107,81 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>articulate communication style</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
-        </is>
-      </c>
+          <t>source-led intervention delivery</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fluent</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:050384</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>respectful communication style</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>A process involving the transmission of information between two or more participants.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>easily comprehended communication style</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
+          <t>communication using commands</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>This can involve using plain and simple language</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
+          <t>communication using imperatives</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1293,70 +1190,76 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>engaging communication style</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>communication encouraging discussion</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>communication style conveying perceived superiority</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>communication involving confirmatory rephrasing</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>humorous communication style</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>A communication style intended to amuse.</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+          <t>communication avoiding interrupting</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1365,104 +1268,87 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>controlling communication style</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>communication adding intensity to another's views</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>intellectual communication style</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>communication involving elaboration of arguments</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>legitimising communication style</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
-        </is>
-      </c>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>validating emotions</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>collaborative communication style</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
+          <t>interrupting</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>A communication in which one person interjects before another has finished making their point.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1471,22 +1357,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>non-responsive communication style</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
+          <t>communication evoking another's ideas about change</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>evoking change talk in motivational interviewing</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1495,22 +1388,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>communication style conveying acceptance</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
+          <t>communication using rational arguments</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1519,27 +1414,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>intervention style of delivery</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1548,22 +1440,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>non-judgmental communication style</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1572,46 +1466,45 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>A communication style conveying information in a hurried way.</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>angry communication style</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>A communication style characterised by anger.</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
+          <t>communication checking for others' understanding</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1620,46 +1513,60 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>conversational communication style</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>script-based communication</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>cold communication style</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+          <t>affirming communication</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1668,51 +1575,55 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>formal communication style</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>informal communication style</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
+          <t>classroom-style discussion</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1721,27 +1632,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>communication style conveying hopefulness</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
-        </is>
-      </c>
+          <t>shifting focus of communication</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>optimism, positivity</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1750,32 +1658,29 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>autonomy-supportive communication style</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
-        </is>
-      </c>
+          <t>relationship building</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>needs-supportive communication style</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1784,90 +1689,96 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>communication style demonstrating positive regard</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+          <t>exploring communication</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>eliciting or seeking information</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>attentive communication style</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>communication exploring a person's thoughts about an experience</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>semi-structured communication style</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
-        </is>
-      </c>
+          <t>communication exploring a person's feelings about a topic</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>organised communication style</t>
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1876,27 +1787,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>behaviour change intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+          <t>communication exploring a person's thoughts about a topic</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1905,114 +1818,132 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>readability</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>communication exploring a person's feelings about an experience</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>object visual style</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>communication using interjections to signal attentiveness</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>object layout</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>banter</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>oral communication pace</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>guiding communication</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2021,32 +1952,34 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>source visual style</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>branded communication</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
+          <t>use of branding; brand identity</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2055,22 +1988,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>tone of voice</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>active listening</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2079,70 +2014,81 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
+          <t>BCIO:044024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>A planned process by which intervention content is delivered.</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>communication avoiding argumentation</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:044070</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>person-centred intervention delivery</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>paraphrasing</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>A communication in which one participant summarises what the other said.</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>participant-led intervention delivery</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>communication understating intensity of person's views</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2151,113 +2097,143 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>behaviour change intervention delivery</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>intervention content communication process</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>A communication that transmits the content of an intervention</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>source-led intervention delivery</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>behaviour change intervention content communication process</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:050554</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>communication source</t>
-        </is>
-      </c>
+          <t>BCIO:044069</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>A &lt;material entity&gt; that originates a communication.</t>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:050553</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>communication recipient</t>
-        </is>
-      </c>
+          <t>BCIO:044023</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>A &lt;person&gt; who receives a communication.</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>communication asking permission to provide information and advice</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050552</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>communication channel</t>
-        </is>
-      </c>
+          <t>BCIO:050388</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>A &lt;process&gt; by which a communication is delivered.</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>communication showing acknowledgement</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2266,27 +2242,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
+          <t>BCIO:044021</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
+          <t>communication acknowledging difficulties</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2295,51 +2268,60 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>communication using deliberate pauses</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>double-sided reflective communication</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
-        </is>
-      </c>
+          <t>emotionally expressive communication</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2348,138 +2330,118 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>metaphor-using reflective communication</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
-        </is>
-      </c>
+          <t>communication offering choice</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>summarising reflective communication</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
-        </is>
-      </c>
+          <t>communication involving agreement</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>emotion-emphasising reflective communication</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
-        </is>
-      </c>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>re-evaluation prompting reflective communication</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
-        </is>
-      </c>
+          <t>communication using a particular form of address</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>communication avoiding interrupting</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
+          <t>communication using informal address</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2488,46 +2450,55 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>communication offering choice</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>communication using formal address</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>communication evoking another's ideas about change</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
-        </is>
-      </c>
+          <t>communication using preferred form of address</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>evoking change talk in motivational interviewing</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2536,51 +2507,45 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>communication inviting reactions to content presented</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:044050</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>classroom-style discussion</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
+          <t>communication using particular language</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>A communication using certain vocabulary or phraseology.</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2589,37 +2554,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:044056</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>communication using interjections to signal attentiveness</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
-        </is>
-      </c>
+          <t>communication using selected words from a second language</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2628,27 +2580,29 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:044054</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>paraphrasing</t>
-        </is>
-      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
+          <t>communication using specialist language</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
+          <t>using jargon</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2657,27 +2611,24 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>guiding communication</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
+          <t>communication using neutral language</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2686,32 +2637,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>branded communication</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
-        </is>
-      </c>
+          <t>communication using non-pressurising language</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>use of branding; brand identity</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2720,46 +2663,50 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>communication adding intensity to another's views</t>
-        </is>
-      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>communication avoiding offensive language</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>communication using commands</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
-        </is>
-      </c>
+          <t>communication using slang</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>communication using imperatives</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
+          <t>A communication using informal language shared by members of a particular community.</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2768,151 +2715,175 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>communication highlighting a contradiction</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>communication checking for own understanding</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>emotionally expressive communication</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>agenda-sharing communication</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>communication involving agreement</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>asking questions</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>A communication in which some participant requests information from another participant.</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
+          <t>asking leading questions</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>communication understating intensity of person's views</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
-        </is>
-      </c>
+          <t>asking focused questions</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>"undershooting" in motivational interviewing</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>communication involving elaboration of arguments</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>asking closed-ended questions</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>narrative communication</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
+          <t>asking open-ended questions</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2921,41 +2892,50 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>communication involving confirmatory rephrasing</t>
-        </is>
-      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>asking clarifying questions</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Asking questions in order to better understand an issue.</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>negotiation</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>reflective communication</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2964,32 +2944,29 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>offering reassurance</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>made reassuring statements</t>
+          <t>double-sided reflective communication</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>based on Roter Interactional Analysis System</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
+          <t>"double-sided reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2998,27 +2975,29 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>communication checking for own understanding</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
+          <t>re-evaluation prompting reflective communication</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3027,27 +3006,29 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>communication encouraging discussion</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+          <t>metaphor-using reflective communication</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Contrasts with a more one-way, didactic style</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3056,27 +3037,29 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>script-based communication</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+          <t>emotion-emphasising reflective communication</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
+          <t>"reflection of feeling" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3085,70 +3068,71 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>communication asking permission to provide information and advice</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>summarising reflective communication</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>interrupting</t>
-        </is>
-      </c>
+          <t>BCIO:050441</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
-          <t>banter</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3157,60 +3141,76 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>agenda-sharing communication</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>communication avoiding argumentation</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
+          <t>BCIO:050457</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3219,22 +3219,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
-          <t>shifting focus of communication</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3243,22 +3245,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>communication using particular language</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3267,22 +3271,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>communication using slang</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3291,51 +3297,40 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>communication using specialist language</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>using jargon</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
+          <t>BCIO:050554</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>communication using neutral language</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>communication source</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>A &lt;material entity&gt; that originates a communication.</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3344,46 +3339,40 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
+          <t>IAO:0000030</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
+        </is>
+      </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>communication avoiding offensive language</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:050555</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>communication using selected words from a second language</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>communication message</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3392,85 +3381,71 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_043000</t>
+        </is>
+      </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>communication using non-pressurising language</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:044003</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
-          <t>communication using deliberate pauses</t>
+          <t>communication process attribute</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>An attribute of a communication process.</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>intervention content communication process</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>A communication that transmits the content of an intervention</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>oral communication pace</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3479,27 +3454,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>behaviour change intervention content communication process</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
+          <t>tone of voice</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3508,22 +3480,29 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>asking questions</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>A communication in which some participant requests information from another participant.</t>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>readability</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3532,89 +3511,127 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>asking leading questions</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
-        </is>
-      </c>
+          <t>object layout</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>asking directive questions</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>style of delivery</t>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>asking closed-ended questions</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
+          <t>source visual style</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>asking focused questions</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>object visual style</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>asking open-ended questions</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
+          <t>communication style</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3623,22 +3640,24 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>asking clarifying questions</t>
-        </is>
-      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Asking questions in order to better understand an issue.</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
+          <t>non-responsive communication style</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3647,46 +3666,60 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>entertaining communication style</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>fun</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>affirming communication</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
+          <t>communication style conveying genuineness</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>sincerity</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3695,22 +3728,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
+          <t>controlling communication style</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3719,46 +3754,60 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>communication acknowledging difficulties</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>legitimising communication style</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>communication checking for others' understanding</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
+          <t>active participation encouraging communication style</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3767,46 +3816,60 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>communication inviting reactions to content presented</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
+          <t>patient communication style</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>relationship building</t>
-        </is>
-      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
+          <t>communication style conveying hopefulness</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3815,27 +3878,24 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>communication using a particular form of address</t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
+          <t>angry communication style</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>A communication style characterised by anger.</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3844,22 +3904,24 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>communication using formal address</t>
-        </is>
-      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
+          <t>anxious communication style</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>A communication style characterised by nervousness or unease.</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3868,51 +3930,60 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>communication using preferred form of address</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>structured communication style</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>standardised</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>communication using informal address</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
+          <t>intellectual communication style</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3921,85 +3992,91 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>active listening</t>
-        </is>
-      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>autonomy-supportive communication style</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>exploring communication</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>eliciting or seeking information</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>behaviour change intervention style of delivery</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about a topic</t>
-        </is>
-      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Elicit concerns, problems and reactions</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
+          <t>verbally dominant communication style</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4008,27 +4085,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about an experience</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
+          <t>rushed communication style</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>A communication style conveying information in a hurried way.</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4037,27 +4111,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>communication exploring a person's feelings about an experience</t>
-        </is>
-      </c>
+      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
+          <t>formal communication style</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4066,27 +4137,24 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>communication exploring a person's thoughts about a topic</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
+          <t>non-judgmental communication style</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4095,22 +4163,29 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:050555</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>communication message</t>
-        </is>
-      </c>
+          <t>BCIO:044101</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
+          <t>empathic communication style</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4119,22 +4194,24 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:044105</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
+          <t>impatient communication style</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4143,46 +4220,55 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:044005</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>intervention style of delivery</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
+          <t>communication style demonstrating positive regard</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4191,22 +4277,24 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
+          <t>non-confrontational communication style</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4215,24 +4303,818 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>informal communication style</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>BCIO:044092</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>communication style conveying perceived superiority</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>BCIO:044098</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>didactic communication style</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>BCIO:044110</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>non-defensive communication style</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>BCIO:044089</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>communication style conveying concern</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>BCIO:044087</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>communication style conveying acceptance</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>BCIO:044102</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>engaging communication style</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>BCIO:044117</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>respectful communication style</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>BCIO:044121</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>theatrical communication style</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>BCIO:044081</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>aloof communication style</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>BCIO:044085</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>collaborative communication style</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>BCIO:044082</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>articulate communication style</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>BCIO:050390</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>humorous communication style</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>A communication style intended to amuse.</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>BCIO:044123</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>warm communication style</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>A communication style which demonstrates human interest and caring.</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>BCIO:044086</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>cold communication style</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>BCIO:050380</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>aggressive communication style</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>A communication style characterised by aggression.</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>BCIO:044115</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>polite communication style</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>A communication style characterised by courtesy.</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>BCIO:044099</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>directive communication style</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>BCIO:044108</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>interactive communication style</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>BCIO:050389</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>direct communication style</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>A communication style characterised by the explicit presentation of information.</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>BCIO:044094</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>communication style conveying support for change</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>BCIO:044100</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>easily comprehended communication style</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>BCIO:044116</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>relaxed communication style</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>calm communication style</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>BCIO:044097</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>conversational communication style</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>BCIO:044114</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>persuasive communication style</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>BCIO:044119</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>semi-structured communication style</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>BCIO:044118</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>responsive communication style</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BCIO:044083</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>attentive communication style</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
         </is>
       </c>
     </row>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -443,44 +443,44 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>Cross reference</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MF:0000016</t>
+          <t>IAO:0000030</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/MF_0000016</t>
+          <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -491,13 +491,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:050553</t>
+          <t>BCIO:050555</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>communication recipient</t>
+          <t>communication message</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -505,10 +505,10 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A &lt;person&gt; who receives a communication.</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -517,56 +517,76 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
+          <t>expressive behaviour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -575,24 +595,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -601,39 +621,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>BCIO:050441</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>expressive behaviour</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -641,10 +651,10 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -670,7 +680,7 @@
           <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -696,7 +706,7 @@
           <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -705,57 +715,57 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>MF:0000016</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MF_0000016</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>BCIO:050553</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>communication recipient</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>A &lt;person&gt; who receives a communication.</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
-        </is>
-      </c>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_043000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -763,24 +773,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:044003</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>communication process attribute</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+          <t>An attribute of a communication process.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -789,24 +804,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044125</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>tone of voice</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -815,24 +830,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044004</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>communication style</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
+          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -841,24 +856,34 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
+          <t>BCIO:044084</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>autonomy-supportive communication style</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
+          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>needs-supportive communication style</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -867,24 +892,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044090</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>communication style conveying genuineness</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
+          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>sincerity</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -893,7 +923,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044102</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -901,16 +931,16 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>engaging communication style</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
+          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -919,24 +949,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:044098</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>didactic communication style</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
+          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>gave a short lecture, conference presentation</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -945,40 +980,65 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BFO:0000015</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
-        </is>
-      </c>
+          <t>BCIO:044100</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>easily comprehended communication style</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>using non-technical language, using clear language, avoiding jargon</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>This can involve using plain and simple language</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050552</t>
+          <t>BCIO:050389</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>communication channel</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>direct communication style</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A &lt;process&gt; by which a communication is delivered.</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
+          <t>A communication style characterised by the explicit presentation of information.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Note that this class is different from directive communication style</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -987,40 +1047,50 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OBI:0000011</t>
+          <t>BCIO:044131</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000011</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>anxious communication style</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>A communication style characterised by nervousness or unease.</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:045000</t>
+          <t>BCIO:044081</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>intervention delivery</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>aloof communication style</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A planned process by which intervention content is delivered.</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
+          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1029,7 +1099,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:044123</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1037,16 +1107,21 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>behaviour change intervention delivery</t>
+          <t>warm communication style</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
+          <t>A communication style which demonstrates human interest and caring.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>friendly communication style</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1055,7 +1130,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:044007</t>
+          <t>BCIO:044121</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -1063,16 +1138,16 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>participant-led intervention delivery</t>
+          <t>theatrical communication style</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
+          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1081,7 +1156,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:044006</t>
+          <t>BCIO:044094</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -1089,16 +1164,16 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>person-centred intervention delivery</t>
+          <t>communication style conveying support for change</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
+          <t>A communication style which imparts one's belief that the recipient can change.</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1107,7 +1182,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:044008</t>
+          <t>BCIO:044101</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1115,73 +1190,83 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>source-led intervention delivery</t>
+          <t>empathic communication style</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
+          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>sensitivity, compassion</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050384</t>
+          <t>BCIO:044119</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>semi-structured communication style</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A process involving the transmission of information between two or more participants.</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>organised communication style</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:044047</t>
+          <t>BCIO:044115</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>communication using commands</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>polite communication style</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>communication using imperatives</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
+          <t>A communication style characterised by courtesy.</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1190,76 +1275,86 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:044028</t>
+          <t>BCIO:044109</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>communication encouraging discussion</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>legitimising communication style</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>validating emotions</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Contrasts with a more one-way, didactic style</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:044039</t>
+          <t>BCIO:044086</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>communication involving confirmatory rephrasing</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>cold communication style</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
+          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:044062</t>
+          <t>BCIO:044114</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>communication avoiding interrupting</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>persuasive communication style</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
+          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1268,87 +1363,112 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:044022</t>
+          <t>BCIO:044087</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>communication adding intensity to another's views</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>communication style conveying acceptance</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
+          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:044040</t>
+          <t>BCIO:044107</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>communication involving elaboration of arguments</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>intellectual communication style</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
+          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:044034</t>
+          <t>BCIO:044083</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>communication highlighting a contradiction</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>attentive communication style</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
+          <t>A communication style characterised by purposeful consideration of another's statements.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>"listened carefully to what you had to say"</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:044061</t>
+          <t>BCIO:044097</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>interrupting</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>conversational communication style</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>A communication in which one person interjects before another has finished making their point.</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
+          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1357,29 +1477,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:044029</t>
+          <t>BCIO:050380</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>communication evoking another's ideas about change</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>aggressive communication style</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>evoking change talk in motivational interviewing</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
+          <t>A communication style characterised by aggression.</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1388,24 +1503,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:044058</t>
+          <t>BCIO:050390</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>communication using rational arguments</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>humorous communication style</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
+          <t>A communication style intended to amuse.</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1414,24 +1529,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:044065</t>
+          <t>BCIO:044122</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>negotiation</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>verbally dominant communication style</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
+          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1440,24 +1555,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:044064</t>
+          <t>BCIO:044085</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>narrative communication</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>collaborative communication style</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
+          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1466,45 +1581,60 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:044036</t>
+          <t>BCIO:044103</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>entertaining communication style</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
+          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>fun</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:044026</t>
+          <t>BCIO:044091</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>communication checking for others' understanding</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>communication style conveying hopefulness</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
+          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>optimism, positivity</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1513,60 +1643,50 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:044077</t>
+          <t>BCIO:044095</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>script-based communication</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>communication style demonstrating positive regard</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:044010</t>
+          <t>BCIO:044104</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>affirming communication</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>formal communication style</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Making explicit statements of partnership or support; Shows approval;</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
+          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1575,38 +1695,38 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:044019</t>
+          <t>BCIO:044108</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>interactive communication style</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style characterised by being responsive to the recipient's activity.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>interactive presentation</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:044020</t>
+          <t>BCIO:044082</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1614,16 +1734,21 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>classroom-style discussion</t>
+          <t>articulate communication style</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
+          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fluent</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1632,24 +1757,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:044078</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>shifting focus of communication</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>behaviour change intervention style of delivery</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
+          <t>A communication style that is an attribute of a BCI content communication process.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1658,29 +1788,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:044124</t>
+          <t>BCIO:044112</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>relationship building</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>non-judgmental communication style</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
+          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1689,43 +1814,43 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:044030</t>
+          <t>BCIO:044117</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>exploring communication</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>respectful communication style</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>"acknowledging the victim's feelings"</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>eliciting or seeking information</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:050387</t>
+          <t>BCIO:044099</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1733,30 +1858,35 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>communication exploring a person's thoughts about an experience</t>
+          <t>directive communication style</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about an experience.</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style intended to play an active role in another person's decision making.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Note that this class is different from direct communication style</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:050383</t>
+          <t>BCIO:044105</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1764,21 +1894,16 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about a topic</t>
+          <t>impatient communication style</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to a matter.</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Elicit concerns, problems and reactions</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
+          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1787,7 +1912,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:050386</t>
+          <t>BCIO:044096</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1795,21 +1920,16 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>communication exploring a person's thoughts about a topic</t>
+          <t>controlling communication style</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>An exploring communication focused on what a person thinks about a matter.</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>clarifying what someone has said</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
+          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1818,7 +1938,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:050385</t>
+          <t>BCIO:044113</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1826,124 +1946,104 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>communication exploring a person's feelings about an experience</t>
+          <t>patient communication style</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>An exploring communication focused on a person's affective responses to an experience.</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>"willing to listen"</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>An experience can be any situation or state a person encounters or undergoes</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:044049</t>
+          <t>BCIO:044116</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>communication using interjections to signal attentiveness</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>relaxed communication style</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+          <t>A communication style characterised by a lack of tension or anxiety.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Words like "interesting", "yeah"," mmhmm"</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>calm communication style</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:044017</t>
+          <t>BCIO:044092</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>banter</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>communication style conveying perceived superiority</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BCIO:044060</t>
+          <t>BCIO:044111</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>guiding communication</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>non-confrontational communication style</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
+          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1952,34 +2052,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCIO:044018</t>
+          <t>BCIO:044118</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>branded communication</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>responsive communication style</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>use of branding; brand identity</t>
+          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Change for Life, Time to Change, NHS Smokefree</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
+          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -1988,24 +2083,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BCIO:044009</t>
+          <t>BCIO:050381</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>active listening</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>angry communication style</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
+          <t>A communication style characterised by anger.</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2014,81 +2109,81 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BCIO:044024</t>
+          <t>BCIO:044089</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>communication avoiding argumentation</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>communication style conveying concern</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
+          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BCIO:044070</t>
+          <t>BCIO:044005</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>paraphrasing</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>intervention style of delivery</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A communication in which one participant summarises what the other said.</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style that is an attribute of an intervention content communication process.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCIO:044042</t>
+          <t>BCIO:044079</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>communication understating intensity of person's views</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>active participation encouraging communication style</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>"undershooting" in motivational interviewing</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
+          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2097,38 +2192,33 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BCIO:044001</t>
+          <t>BCIO:050392</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>intervention content communication process</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>rushed communication style</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>A communication that transmits the content of an intervention</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style conveying information in a hurried way.</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BCIO:044002</t>
+          <t>BCIO:044120</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2136,104 +2226,109 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>behaviour change intervention content communication process</t>
+          <t>structured communication style</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>An intervention content communication process that is about behaviour change intervention content</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>standardised</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BCIO:044069</t>
+          <t>BCIO:044106</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>offering reassurance</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>informal communication style</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>made reassuring statements</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>based on Roter Interactional Analysis System</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BCIO:044023</t>
+          <t>BCIO:044110</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>communication asking permission to provide information and advice</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>non-defensive communication style</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
+          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BCIO:050388</t>
+          <t>BCIO:050391</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>communication showing acknowledgement</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>non-responsive communication style</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A communication involving the expressed recognition of what another has expressed.</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
+          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2242,24 +2337,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BCIO:044021</t>
+          <t>BCIO:044126</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>communication acknowledging difficulties</t>
-        </is>
-      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>oral communication pace</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
+          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2268,60 +2363,70 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BCIO:044048</t>
+          <t>BCIO:044129</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>communication using deliberate pauses</t>
+          <t>object layout</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>staying silent (where this is intended to give others the chance to speak)</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BCIO:044059</t>
+          <t>BCIO:044128</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>emotionally expressive communication</t>
+          <t>source visual style</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
+          <t>An attribute of an intervention person source concerning how they appear to others.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>may be purposefully chosen to convey certain attributes of the source</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2330,118 +2435,128 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BCIO:044041</t>
+          <t>BCIO:044130</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>communication offering choice</t>
+          <t>readability</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>A communication involving the initiator offering a range of options to the recipient.</t>
+          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BCIO:044037</t>
+          <t>BCIO:044127</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>communication involving agreement</t>
+          <t>object visual style</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>A communication in which one participant concurs with the views stated by another.</t>
+          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BCIO:044038</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>communication involving agreement followed by highlighting incongruent aspects</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BCIO:044043</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>communication using a particular form of address</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BCIO:044045</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>communication using informal address</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2450,7 +2565,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BCIO:044044</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -2458,16 +2573,16 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>communication using formal address</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2476,29 +2591,24 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BCIO:044046</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>communication using preferred form of address</t>
-        </is>
-      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2507,45 +2617,40 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BCIO:044035</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>communication inviting reactions to content presented</t>
-        </is>
-      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>A communication seeking information about a person's responses to the  content presented.</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BCIO:044050</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>communication using particular language</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>A communication using certain vocabulary or phraseology.</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2554,7 +2659,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BCIO:044056</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -2562,16 +2667,16 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>communication using selected words from a second language</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2580,29 +2685,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BCIO:044054</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>communication using specialist language</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>using jargon</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2611,50 +2711,40 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BCIO:044051</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
+          <t>BCIO:036000</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_036000</t>
+        </is>
+      </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>communication using neutral language</t>
-        </is>
-      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BCIO:044052</t>
+          <t>BCIO:050457</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>expressive behaviour</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>communication using non-pressurising language</t>
-        </is>
-      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
+          <t>An individual human behaviour that conveys a thought or feeling.</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2663,24 +2753,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BCIO:044055</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>communication avoiding offensive language</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>human communication behaviour</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2689,7 +2779,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BCIO:044053</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -2697,16 +2787,16 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>communication using slang</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>A communication using informal language shared by members of a particular community.</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2715,29 +2805,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BCIO:044027</t>
+          <t>BCIO:050374</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>communication checking for own understanding</t>
+          <t>laughing</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>clarifying what another has said</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
+          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2746,45 +2831,40 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BCIO:044011</t>
+          <t>BCIO:050441</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>agenda-sharing communication</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BCIO:044012</t>
+          <t>BCIO:036025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>asking questions</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>A communication in which some participant requests information from another participant.</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
+          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2793,7 +2873,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BCIO:044015</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -2801,21 +2881,16 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>asking leading questions</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>asking directive questions</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
+          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2824,66 +2899,66 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BCIO:044014</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>asking focused questions</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BCIO:044013</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>BFO:0000040</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>asking closed-ended questions</t>
-        </is>
-      </c>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Asking questions that can only be answered with a limited set of responses.</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BCIO:044016</t>
+          <t>BCIO:050554</t>
         </is>
       </c>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>communication source</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>asking open-ended questions</t>
-        </is>
-      </c>
+      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
+          <t>A &lt;material entity&gt; that originates a communication.</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2892,81 +2967,56 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BCIO:050382</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>BFO:0000015</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>asking clarifying questions</t>
-        </is>
-      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Asking questions in order to better understand an issue.</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BCIO:044071</t>
+          <t>OBI:0000011</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>reflective communication</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000011</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BCIO:044073</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>double-sided reflective communication</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>intervention delivery</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>"double-sided reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
+          <t>A planned process by which intervention content is delivered.</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -2975,7 +3025,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCIO:044076</t>
+          <t>BCIO:044006</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -2983,21 +3033,16 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>re-evaluation prompting reflective communication</t>
+          <t>person-centred intervention delivery</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>"amplified reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
+          <t>An intervention delivery characterised by efforts by an intervention source to give a person the resources they need to manage their own life and make them an active participant in deciding how to move forward.</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3006,7 +3051,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BCIO:044074</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -3014,21 +3059,16 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>metaphor-using reflective communication</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>"metaphorical reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3037,7 +3077,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BCIO:044075</t>
+          <t>BCIO:044008</t>
         </is>
       </c>
       <c r="B99" t="inlineStr"/>
@@ -3045,30 +3085,20 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>emotion-emphasising reflective communication</t>
+          <t>source-led intervention delivery</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>"reflection of feeling" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>An intervention delivery in which the intervention person source takes the lead in determining the focus of the intervention.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BCIO:044072</t>
+          <t>BCIO:044007</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -3076,21 +3106,16 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>summarising reflective communication</t>
+          <t>participant-led intervention delivery</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>"summarising reflection" in Motivational Interviewing</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
+          <t>An intervention delivery in which the participant takes the lead in determining the focus of the intervention.</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3099,40 +3124,60 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BCIO:050441</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_050441</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>BCIO:050384</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>A process involving the transmission of information between two or more participants.</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>The participants in the communication process can be of a variety of types, e.g. a human talking to an automated chatbot system, two computer systems exchanging information, a person talking to a pet animal etc.</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:044029</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>communication evoking another's ideas about change</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
-          <t>An &lt;socially-related behaviour&gt; that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
+          <t>A communication in which the initiator attempts to elicit the recipient’s own thoughts and ideas about change rather than imposing the initiator’s own opinion.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>evoking change talk in motivational interviewing</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3141,76 +3186,66 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044022</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>human communication behaviour</t>
+          <t>communication adding intensity to another's views</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that add intensity to the content or emotion expressed by another person.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044011</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>agenda-sharing communication</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator and one or more activity participants work together to determine a focus for the activity to be undertaken.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BCIO:050457</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>expressive behaviour</t>
-        </is>
-      </c>
+          <t>BCIO:044050</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>communication using particular language</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>An individual human behaviour that conveys a thought or feeling.</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
+          <t>A communication using certain vocabulary or phraseology.</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3219,24 +3254,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:044052</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>human communication behaviour</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>communication using non-pressurising language</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
-          <t>An expressive behaviour that involves the transmission of information between two or more people.</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
+          <t>A communication using language chosen to avoid coercing or persuading the recipient to think, feel or behave in a certain manner.</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3245,24 +3280,24 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:044055</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>communication avoiding offensive language</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
+          <t>A communication using language chosen by the instigator to avoid using words or phrases that could be perceived as rude or insulting.</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3271,24 +3306,24 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BCIO:050374</t>
+          <t>BCIO:044051</t>
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>laughing</t>
-        </is>
-      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>communication using neutral language</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>An expressive behaviour showing elation, amusement or scorn by means of facial expressions and repeated sharp exhalations.</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
+          <t>A communication using language in a manner which does not demonstrate an opinion on a particular issue.</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3297,40 +3332,55 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000040</t>
-        </is>
-      </c>
+          <t>BCIO:044054</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>communication using specialist language</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>A communication using words or expressions used by a profession or group that are difficult for others not in that profession or group to understand.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>using jargon</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BCIO:050554</t>
+          <t>BCIO:044053</t>
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>communication source</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>communication using slang</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>A &lt;material entity&gt; that originates a communication.</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
+          <t>A communication using informal language shared by members of a particular community.</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3339,113 +3389,128 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IAO:0000030</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
-        </is>
-      </c>
+          <t>BCIO:044056</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>communication using selected words from a second language</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>A communication using occasional words chosen from a language spoken by both the instigator and the recipient that is not the main language.</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BCIO:050555</t>
+          <t>BCIO:044040</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>communication message</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>communication involving elaboration of arguments</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>An &lt;information content entity&gt; transmitted from a communication source to a communication recipient.</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication further developing a declarative statement that has been made  by making it clearer, more precise, bringing out its consequences or giving a concrete example.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_043000</t>
-        </is>
-      </c>
+          <t>BCIO:044070</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>paraphrasing</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>A communication in which one participant summarises what the other said.</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>This class is different to "communication involving confirmatory rephrasing" as this class is simply about summarising what another person said.</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BCIO:044003</t>
+          <t>BCIO:044078</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>communication process attribute</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>shifting focus of communication</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>An attribute of a communication process.</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication that involves altering the area of greatest attention during the delivery of information.</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Communication processes can have a variety of attributes, such as their speed, how they are delivered, what language they take place in and the tone of voice in which they occur.  All these types of attributes and more are captured by "communication process attribute"</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BCIO:044126</t>
+          <t>BCIO:044012</t>
         </is>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>oral communication pace</t>
+          <t>asking questions</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the speed with which an individual speaks.</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
+          <t>A communication in which some participant requests information from another participant.</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3454,55 +3519,50 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BCIO:044125</t>
+          <t>BCIO:044014</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>tone of voice</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>asking focused questions</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>An attribute of an oral communication relating to the rhythm and pitch of what is said.</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions designed to narrow discussion to focus on a particular aspect or topic.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BCIO:044130</t>
+          <t>BCIO:044015</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>readability</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>asking leading questions</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>An attribute of a text used in communication process, concerning the ease of understanding the wording or other qualitative aspects of the text that facilitate comprehension.</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>including adequate blank space and empty circles for the young people and their carers to record and review agenda items</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
+          <t>Asking questions designed to prompt the questionee to answer in a specific, pre-determined manner.</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>asking directive questions</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3511,101 +3571,71 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BCIO:044129</t>
+          <t>BCIO:044016</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>object layout</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>asking open-ended questions</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>An attribute of an object used in communication process, concerning how the object's components are arranged.</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>arrangement of chairs in the room for a group intervention, amount of space between blocks of text in a leaflet, arrangement of sections of a website</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>Asking questions that cannot be answered with a simple yes or no, but instead require the questionee to elaborate on their points.</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>the arrangement of components can be deliberately chosen to help communicate intervention content</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BCIO:044128</t>
+          <t>BCIO:044013</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>source visual style</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>asking closed-ended questions</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>An attribute of an intervention person source concerning how they appear to others.</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Health care professionals' uniform to convey authority and knowledge, doctors not wearing white coats to speak to children</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>may be purposefully chosen to convey certain attributes of the source</t>
+          <t>Asking questions that can only be answered with a limited set of responses.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BCIO:044127</t>
+          <t>BCIO:050382</t>
         </is>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>object visual style</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>asking clarifying questions</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>An attribute of an object used in a communication process, concerning how information sensed with the eyes is presented, which may include colours/fonts/images/spacing/sizing.</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>colour scheme chosen for a website, style of images used for a booklet, brightly coloured reminder stickers</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
+          <t>Asking questions in order to better understand an issue.</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3614,24 +3644,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BCIO:044004</t>
+          <t>BCIO:050388</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>communication style</t>
+          <t>communication showing acknowledgement</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
-          <t>A particular manner of communicating aimed at inducing or avoiding certain kinds of responses in others, or demonstrating certain characteristics of the initiator.</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
+          <t>A communication involving the expressed recognition of what another has expressed.</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3640,7 +3670,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:050391</t>
+          <t>BCIO:044021</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -3648,16 +3678,16 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>non-responsive communication style</t>
+          <t>communication acknowledging difficulties</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>A communication style characterised by not adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
+          <t>A communication showing acknolwedgement conveying empathy or compassion towards a sub-optimal situation or concerns of a recipient.</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3666,29 +3696,29 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:044103</t>
+          <t>BCIO:044124</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>entertaining communication style</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>relationship building</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>A communication style intended to be amusing or enjoyable for the recipient.</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>fun</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
+          <t>A communication aimed at building or managing aspects of the interpersonal relationship between an initiator and a recipient rather than focusing on delivering communication content.</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>offering contact, inviting patient to contact you in the event of difficulties or questions</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3697,29 +3727,34 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:044090</t>
+          <t>BCIO:044018</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>communication style conveying genuineness</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>branded communication</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>A communication style which suggests one is acting in line with one's true values and beliefs.</t>
+          <t>A communication using a consistent style of text or graphics to identify and distinguish a product, service or intervention from other products, services or interventions.</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Change for Life, Time to Change, NHS Smokefree</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sincerity</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
+          <t>use of branding; brand identity</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3728,24 +3763,24 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BCIO:044096</t>
+          <t>BCIO:044064</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>controlling communication style</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>narrative communication</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>A communication style which directly instructs the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
+          <t>A communication describing the particulars of a person's life or a course of events in the style of telling a story.</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3754,60 +3789,50 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BCIO:044109</t>
+          <t>BCIO:044039</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>legitimising communication style</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>communication involving confirmatory rephrasing</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>A communication style characterised by making a person feel that their perspective or emotions are legitimate.</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>validating emotions</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This entails a deliberate strategy to make the person feel their perspective is legitimate </t>
+          <t>A communication involving the initiator rephrasing what a recipient says in a manner intended to confirm understanding of the recipient's situation rather than confront.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BCIO:044079</t>
+          <t>BCIO:044027</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>active participation encouraging communication style</t>
-        </is>
-      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>communication checking for own understanding</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>A communication style marked by fostering the involvement of the recipient as an engaged actor in the activity to be undertaken rather than as a passive recipient.</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
+          <t>A communication in which the instigator asks questions to determine if they have correctly comprehended the information presented by another.</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>clarifying what another has said</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3816,60 +3841,50 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BCIO:044113</t>
+          <t>BCIO:044024</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>patient communication style</t>
-        </is>
-      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>communication avoiding argumentation</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>A communication style conveying willingness to take time to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>"willing to listen"</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication which aims to focus on the feelings of others without debating the truth or falsity of statements or ideas.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BCIO:044091</t>
+          <t>BCIO:044077</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>communication style conveying hopefulness</t>
-        </is>
-      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>script-based communication</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling of optimism that a person will attain a desired outcome.</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>optimism, positivity</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
+          <t>A communication which follows a pre-written sequence of instructions that are interpreted or carried out by a person or by a program.</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>This class involves tightly following a set of written instructions. It is different to structured communication style, which is a pre-planned style but not to the extent of using a written script.</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -3878,33 +3893,28 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BCIO:050381</t>
+          <t>BCIO:044037</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>angry communication style</t>
-        </is>
-      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>communication involving agreement</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>A communication style characterised by anger.</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one participant concurs with the views stated by another.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BCIO:044131</t>
+          <t>BCIO:044038</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -3912,171 +3922,156 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>anxious communication style</t>
+          <t>communication involving agreement followed by highlighting incongruent aspects</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>A communication style characterised by nervousness or unease.</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving agreement in which one participant concurs with the views stated by another and then points out an incongruent aspect of the situation under discussion.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BCIO:044120</t>
+          <t>BCIO:044028</t>
         </is>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>structured communication style</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>communication encouraging discussion</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having constituent pre-planned parts.</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>standardised</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the initiator promotes an extended two-way discussion regarding a topic.</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Contrasts with a more one-way, didactic style</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t xml:space="preserve">This class is pre-planned style but not to the extent of using a written script. In contrast, "Script-based communication" involves tightly following a set of written instructions. </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BCIO:044107</t>
+          <t>BCIO:044041</t>
         </is>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>intellectual communication style</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>communication offering choice</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>A communication style characterised by an emphasis on reasoning and promoting objective understanding.</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving the initiator offering a range of options to the recipient.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BCIO:044084</t>
+          <t>BCIO:044048</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>autonomy-supportive communication style</t>
-        </is>
-      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>communication using deliberate pauses</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>A communication style which aims to promote the recipient's capacity to make their own decisions.</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>needs-supportive communication style</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the speaker purposely leaves gaps between or after their speech utterances.</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>staying silent (where this is intended to give others the chance to speak)</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Pauses may be deliberately left to provide opportunities for others to speak or reflect, or to demonstrate non-directiveness.</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t xml:space="preserve">from Self-Determination Theory interventions. </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:044042</t>
         </is>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>behaviour change intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>communication understating intensity of person's views</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of a BCI content communication process.</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication using statements that diminish or understate the intensity of the content or emotion expressed by the other person.</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>"undershooting" in motivational interviewing</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>when a communication style is used as part of a BCI content communication process, then it qualifies as a BCI style of delivery</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BCIO:044122</t>
+          <t>BCIO:044071</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>verbally dominant communication style</t>
-        </is>
-      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>reflective communication</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>A communication style characterised by one participant having more control over a conversation than the other.</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
+          <t>A communication presenting a person's previously expressed thoughts and feelings back to them.</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4085,7 +4080,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BCIO:050392</t>
+          <t>BCIO:044073</t>
         </is>
       </c>
       <c r="B137" t="inlineStr"/>
@@ -4093,16 +4088,21 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>rushed communication style</t>
+          <t>double-sided reflective communication</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>A communication style conveying information in a hurried way.</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
+          <t>A reflective communication in which the instigator aims to highlight both the positive and negative sides of an issue as previously expressed by the recipient.</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>"double-sided reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4111,7 +4111,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BCIO:044104</t>
+          <t>BCIO:044076</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -4119,16 +4119,21 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>formal communication style</t>
+          <t>re-evaluation prompting reflective communication</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of traditional standards of correctness and etiquette and without casual, contracted, or colloquial forms of language.</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
+          <t>A reflective communication in which the instigator restates the recipient's prior assertation in a less credible way to prompt reconsideration of the assertion.</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>"amplified reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4137,7 +4142,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BCIO:044112</t>
+          <t>BCIO:044072</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -4145,16 +4150,21 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>non-judgmental communication style</t>
+          <t>summarising reflective communication</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>A communication style that demonstrates that one is not assigning a positive or negative valence to another's views or behaviours.</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
+          <t>A reflective communication in which the instigator pulls together key points from a complex story told by the recipient in a succinct restatement.</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>"summarising reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4163,7 +4173,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BCIO:044101</t>
+          <t>BCIO:044074</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -4171,21 +4181,21 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>empathic communication style</t>
+          <t>metaphor-using reflective communication</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>A communication style which conveys an insightful awareness of the feelings and behaviours of the recipient.</t>
+          <t>A reflective communication in which the instigator  replaces a word or phrase of the recipient's prior assertion with a figure of speech suggesting an analogy.</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sensitivity, compassion</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
+          <t>"metaphorical reflection" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4194,7 +4204,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BCIO:044105</t>
+          <t>BCIO:044075</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -4202,16 +4212,21 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>impatient communication style</t>
+          <t>emotion-emphasising reflective communication</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>A communication style conveying feelings of annoyance at time taken to understand or complete a process.</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
+          <t>A reflective communication highlighting the emotional aspects of an issue as previously described by the recipient.</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>"reflection of feeling" in Motivational Interviewing</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4220,55 +4235,70 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BCIO:044005</t>
+          <t>BCIO:044049</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>communication using interjections to signal attentiveness</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>A communication style that is an attribute of an intervention content communication process.</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which one person uses brief interjections to signal that they are listening to what the other person is saying.</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Words like "interesting", "yeah"," mmhmm"</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>"Back-channels" or "undertalk" in the Roter Interaction Analysis System</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>An interjection is a word, phrase or exclamation which is typically unconnected to a sentence and is used to express an emotion or reaction.</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>when a communication style is used as part of an intervention content communication process, then it qualifies as an intervention style of delivery</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BCIO:044095</t>
+          <t>BCIO:044019</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>communication style demonstrating positive regard</t>
-        </is>
-      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>A communication style demonstrating acceptance of everything about the recipient.</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
+          <t>A communication involving an extended exchange of utterances between an instigator and at least one other person.</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>An utterance is an uninterrupted stretch of speech or writing produced by an individual on a particular occasion. An utterance can range from a single word to a complete sentence.</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4277,7 +4307,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BCIO:044111</t>
+          <t>BCIO:044020</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -4285,16 +4315,16 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>non-confrontational communication style</t>
+          <t>classroom-style discussion</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>A communication style characterised by being diplomatic and avoiding conflict.</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
+          <t>A discussion led by the initiator in a manner typical of a teacher or lecturer.</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4303,55 +4333,50 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BCIO:044106</t>
+          <t>BCIO:044026</t>
         </is>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>informal communication style</t>
-        </is>
-      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>communication checking for others' understanding</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>A communication style characterised by the use of casual or colloquial language rather than formal language.</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication in which the instigator asks questions to determine if the recipient has comprehended information that has been presented.</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>"Colloquial" language is language that is typically used in ordinary conversation rather than in formal communication</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BCIO:044092</t>
+          <t>BCIO:044009</t>
         </is>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>communication style conveying perceived superiority</t>
-        </is>
-      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>active listening</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>A communication style which imparts a feeling that the instigator believes themselves to be higher in status than the recipient.</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
+          <t>A communication involving one participant paying close attention to what is said by another, asking questions and reflecting as needed, in an attempt to fully understand what has been said.</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4360,29 +4385,24 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BCIO:044098</t>
+          <t>BCIO:044062</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>didactic communication style</t>
-        </is>
-      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>communication avoiding interrupting</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator addressing the recipient in the manner of a teacher or lecturer.</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>gave a short lecture, conference presentation</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
+          <t>A communication in which at least one participant endeavours to not interject before another participant has finished making their point.</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4391,24 +4411,24 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BCIO:044110</t>
+          <t>BCIO:044061</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>non-defensive communication style</t>
-        </is>
-      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>interrupting</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>A communication style characterised by suggesting the initiator is open to or able to accept criticism.</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
+          <t>A communication in which one person interjects before another has finished making their point.</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4417,24 +4437,29 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BCIO:044089</t>
+          <t>BCIO:044043</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>communication style conveying concern</t>
-        </is>
-      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>communication using a particular form of address</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>A communication style demonstrating one perceives an unwanted circumstance for the recipient.</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
+          <t>A communication addressing a person using a certain name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>The child classes of this class are specific types of address, whereas this class is for a non-specific type of address.</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4443,7 +4468,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BCIO:044087</t>
+          <t>BCIO:044044</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -4451,16 +4476,16 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>communication style conveying acceptance</t>
+          <t>communication using formal address</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>A communication style that conveys respect and regard for the recipient as an individual.</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
+          <t>A communication addressing a person using a formal, legal or official name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4469,7 +4494,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BCIO:044102</t>
+          <t>BCIO:044045</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -4477,16 +4502,16 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>engaging communication style</t>
+          <t>communication using informal address</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>A communication style characterised by attempting to attract and maintain a recipient's interest or attention.</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
+          <t>A communication addressing a person using a casual or colloquial name or title to refer to that person.</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4495,7 +4520,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BCIO:044117</t>
+          <t>BCIO:044046</t>
         </is>
       </c>
       <c r="B152" t="inlineStr"/>
@@ -4503,52 +4528,52 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>respectful communication style</t>
+          <t>communication using preferred form of address</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>A communication style suggesting an understanding of and regard for the feelings, wishes, or rights of others.</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>"acknowledging the victim's feelings"</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication addressing a person using a name or title that the person has specified the instigator should use.</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Depending on whether Suzie Jones prefers to be addressed formally, or by her given name, saying either "Hello Mrs Jones" or "Hello Suzie"</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t xml:space="preserve">This class involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says.  In contrast, responsive communication style is adapting the response as a result of how another person is communicating. </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BCIO:044121</t>
+          <t>BCIO:044010</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>theatrical communication style</t>
-        </is>
-      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>affirming communication</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>A communication style similar to that used for dramatic performance or the theatre.</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
+          <t>A communication involving acknowledging another's strength or resilience in a given context or situation.</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Making explicit statements of partnership or support; Shows approval;</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4557,24 +4582,29 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BCIO:044081</t>
+          <t>BCIO:044001</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>aloof communication style</t>
-        </is>
-      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>intervention content communication process</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of empathy or compassion for the recipient.</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
+          <t>A communication that transmits the content of an intervention</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Note that an intervention is a planned process with the aim of influencing some outcome whereas a behaviour change intervention is an intervention that aims to influence human behaviour as an outcome.</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4583,7 +4613,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCIO:044085</t>
+          <t>BCIO:044002</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -4591,16 +4621,21 @@
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>collaborative communication style</t>
+          <t>behaviour change intervention content communication process</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>A communication style characterised by a sense of the initiator and recipient working together, the initiator showing sensitivity to the others' needs, in order to obtain an outcome desired by all.</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
+          <t>An intervention content communication process that is about behaviour change intervention content</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behaviour change intervention is a planned process that aims to influence human behaviour.  In contrast, an intervention is a planned process with the aim of influencing some outcome.  This outcome may be other than human behaviour. </t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4609,29 +4644,29 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BCIO:044082</t>
+          <t>BCIO:044017</t>
         </is>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>articulate communication style</t>
-        </is>
-      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>banter</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>A communication style characterised by the initiator fluently using language to express ideas.</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> fluent</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
+          <t>A communication involving the exchange of light and teasing remarks intended to be playful.</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Note that teasing is an essential part of the definition of banter. For amusing or enjoyable communication, but without the element of teasing, using entertaining or humourous communication style. Also, note that banter may not always be perceived as playful by the subject of the remarks</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4640,24 +4675,29 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BCIO:050390</t>
+          <t>BCIO:044060</t>
         </is>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>humorous communication style</t>
-        </is>
-      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>guiding communication</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>A communication style intended to amuse.</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
+          <t>A communication that involves suggesting adoption of certain beliefs, theories or lines of action by others.</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When a practitioner suggests to a patient 'Could you think about it like this...' </t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4666,55 +4706,45 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BCIO:044123</t>
+          <t>BCIO:044036</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>warm communication style</t>
-        </is>
-      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>communication involving acceptance that recipients views may be different to the initiator's views</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr">
         <is>
-          <t>A communication style which demonstrates human interest and caring.</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>friendly communication style</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication involving accepting that the recipient has different beliefs to the initiator and continuing with the planned activities while allowing both views to exist.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BCIO:044086</t>
+          <t>BCIO:044058</t>
         </is>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>cold communication style</t>
-        </is>
-      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>communication using rational arguments</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
-          <t>A communication style suggesting a lack of human interest or friendliness towards the recipient.</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
+          <t>A communication that involves the use of declarative propositions based on what the communicator believes to be logical.</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4723,50 +4753,45 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BCIO:050380</t>
+          <t>BCIO:044035</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>aggressive communication style</t>
-        </is>
-      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>communication inviting reactions to content presented</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
-          <t>A communication style characterised by aggression.</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication seeking information about a person's responses to the  content presented.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BCIO:044115</t>
+          <t>BCIO:044059</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>polite communication style</t>
-        </is>
-      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>emotionally expressive communication</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
-          <t>A communication style characterised by courtesy.</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
+          <t>A communication in a manner which clearly conveys the emotions of the initiator.</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4775,65 +4800,45 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BCIO:044099</t>
+          <t>BCIO:044023</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>directive communication style</t>
-        </is>
-      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>communication asking permission to provide information and advice</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>A communication style intended to play an active role in another person's decision making.</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D037001</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>Note that this class is different from direct communication style</t>
+          <t>A communication which involves asking for approval before sharing knowledge and giving guidance.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BCIO:044108</t>
+          <t>BCIO:044065</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>interactive communication style</t>
-        </is>
-      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>negotiation</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>A communication style characterised by being responsive to the recipient's activity.</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>interactive presentation</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
+          <t>A communication involving goal-oriented collaboration to arrive at an agreement or compromise on a matter of importance to the individuals involved.</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4842,55 +4847,65 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BCIO:050389</t>
+          <t>BCIO:044069</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>direct communication style</t>
-        </is>
-      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>offering reassurance</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
-          <t>A communication style characterised by the explicit presentation of information.</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A communication intended to provide hope and strength in times of anxiety, worry, confusion, grief, distress, or suffering.</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>made reassuring statements</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>based on Roter Interactional Analysis System</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Note that this class is different from directive communication style</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BCIO:044094</t>
+          <t>BCIO:044047</t>
         </is>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>communication style conveying support for change</t>
-        </is>
-      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>communication using commands</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>A communication style which imparts one's belief that the recipient can change.</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
+          <t>A communication using statements that order or direct a person to think or behave in a certain way.</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>communication using imperatives</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4899,43 +4914,43 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BCIO:044100</t>
+          <t>BCIO:044030</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>easily comprehended communication style</t>
-        </is>
-      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>exploring communication</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>A communication style characterised by using language in a manner intended to be easily understandable to a recipient.</t>
+          <t>A communication to better understand what a person thinks or feels about a topic or an experience.</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>eliciting or seeking information</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>using non-technical language, using clear language, avoiding jargon</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>This can include asking questions or prompting elaboration e.g 'Tell me more about that'</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>This can involve using plain and simple language</t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BCIO:044116</t>
+          <t>BCIO:050387</t>
         </is>
       </c>
       <c r="B167" t="inlineStr"/>
@@ -4943,21 +4958,21 @@
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>relaxed communication style</t>
+          <t>communication exploring a person's thoughts about an experience</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>A communication style characterised by a lack of tension or anxiety.</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>calm communication style</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
+          <t>An exploring communication focused on what a person thinks about an experience.</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4966,7 +4981,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BCIO:044097</t>
+          <t>BCIO:050386</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -4974,16 +4989,21 @@
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>conversational communication style</t>
+          <t>communication exploring a person's thoughts about a topic</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>A communication style that is typical of interpersonal dialogue which encourages an interactive exchange of ideas and beliefs.</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
+          <t>An exploring communication focused on what a person thinks about a matter.</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>clarifying what someone has said</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -4992,7 +5012,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BCIO:044114</t>
+          <t>BCIO:050383</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -5000,16 +5020,21 @@
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>persuasive communication style</t>
+          <t>communication exploring a person's feelings about a topic</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>A communication style which aims to induce or urge the adoption of certain beliefs, theories or lines of action.</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
+          <t>An exploring communication focused on a person's affective responses to a matter.</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Elicit concerns, problems and reactions</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -5018,7 +5043,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BCIO:044119</t>
+          <t>BCIO:050385</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -5026,26 +5051,21 @@
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>semi-structured communication style</t>
+          <t>communication exploring a person's feelings about an experience</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>A communication style involving the communication content having some constituent pre-planned parts but also being responsive to inputs.</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>organised communication style</t>
+          <t>An exploring communication focused on a person's affective responses to an experience.</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Using talking points, using conversation guides, having a list of topics to cover</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
+          <t>An experience can be any situation or state a person encounters or undergoes</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>style of delivery</t>
         </is>
@@ -5054,67 +5074,47 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BCIO:044118</t>
+          <t>BCIO:044034</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>responsive communication style</t>
-        </is>
-      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>communication highlighting a contradiction</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
-          <t>A communication style characterised by adapting to the views and behaviours of the recipient.</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>This class is adapting response as a result of how another person is communicating. In contrast, respectful communication style involves showing regard for the feelings etc of others from the outset, but not necessarily adapting one's own communication based on what the other says</t>
+          <t>A communication pointing out a situation in which actions or propositions are inconsistent with each other.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BCIO:044083</t>
+          <t>BCIO:050552</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>communication channel</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>attentive communication style</t>
-        </is>
-      </c>
+      <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>A communication style characterised by purposeful consideration of another's statements.</t>
-        </is>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>"listened carefully to what you had to say"</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
+          <t>A &lt;process&gt; by which a communication is delivered.</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t xml:space="preserve">This involves communicating in a manner that ensures the recipient knows that they are being heard </t>
+          <t>style of delivery</t>
         </is>
       </c>
     </row>

--- a/StyleOfDelivery/BCIO-style-hierarchy.xlsx
+++ b/StyleOfDelivery/BCIO-style-hierarchy.xlsx
@@ -629,7 +629,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>A continuant that is a bearer of quality and realizable entity entities, in which other entities inhere and which itself cannot inhere in anything.</t>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. (axiom label in BFO2 Reference: [017-002])</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>An &lt;independent continuant&gt; that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>établissement de pharmacologie</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -2179,7 +2179,7 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>organisation</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4686,7 +4686,7 @@
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
-          <t>A quality that inheres in some extended organism.</t>
+          <t>A bodily quality is a quality that inheres in some extended organism.</t>
         </is>
       </c>
     </row>
@@ -5142,7 +5142,7 @@
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>realizable</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -5591,7 +5591,7 @@
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
         </is>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
-          <t>The personal information that indicates an individual's or his/her family's economic and social position in relation to others, based on income, education, and occupation.</t>
+          <t>A personal attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
-          <t>A cognitive representation of themselves by a person or a group about themselves.</t>
+          <t>A cognitive representation of themselves by a person or group.</t>
         </is>
       </c>
     </row>
@@ -7609,7 +7609,7 @@
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
-          <t>The personal information that indicates an individual's or his/her family's economic and social position in relation to others, based on income, education, and occupation.</t>
+          <t>A personal attribute reflecting a person's economic and social position in relation to others, based on their income, education, or occupation.</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
-          <t>b is a generically dependent continuant = Def. b is a continuant that g-depends_on one or more other entities. (axiom label in BFO2 Reference: [074-001])</t>
+          <t>A continuant that is dependent on one or other independent continuant bearers. For every instance of A requires some instance of (an independent continuant type) B but which instance of B serves can change from time to time.</t>
         </is>
       </c>
     </row>
@@ -26776,7 +26776,7 @@
       <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>An occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t.</t>
+          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
         </is>
       </c>
     </row>
@@ -39343,7 +39343,7 @@
       <c r="H1458" t="inlineStr"/>
       <c r="I1458" t="inlineStr">
         <is>
-          <t>enjoyment</t>
+          <t>jouissance</t>
         </is>
       </c>
       <c r="J1458" t="inlineStr"/>
